--- a/Dataset/Folds/Fold_4/Excel/26.xlsx
+++ b/Dataset/Folds/Fold_4/Excel/26.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4927" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5527" uniqueCount="642">
   <si>
     <t xml:space="preserve">Doi </t>
   </si>
@@ -1953,6 +1953,190 @@
   </si>
   <si>
     <t>[Hassan%Abolghasemi%NULL%1,                          Peyman%Eshghi%NULL%1,                          Abdol Majid%Cheraghali%NULL%1,                          Abbas Ali%Imani Fooladi%NULL%1,                          Farzaneh%Bolouki Moghaddam%NULL%1,                          Sina%Imanizadeh%NULL%1,                          Matin%Moeini Maleki%NULL%1,                          Mohammad%Ranjkesh%NULL%1,                          Mohammad%Rezapour%NULL%1,                          Ali%Bahramifar%NULL%1,                          Behzad%Einollahi%NULL%1,                          Mohammad Javad%Hosseini%NULL%1,                          Nematollah Joneidi%Jafari%NULL%1,                          Mohamad%Nikpouraghdam%NULL%1,                          Nariman%Sadri%NULL%1,                          Mokhtar%Tazik%NULL%1,                          Shanaz%Sali%NULL%1,                          Shamsi%Okati%NULL%1,                          Elham%Askari%NULL%1,                          Payam%Tabarsi%NULL%1,                          Jafar%Aslani%NULL%1,                          Ehsan%Sharifipour%NULL%1,                          Mohammad Hossein%Jarahzadeh%NULL%1,                          Nastaran%Khodakarim%NULL%1,                          Mahmood%Salesi%NULL%1,                          Ramezan%Jafari%NULL%1,                          Samira%Shahverdi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[John H%Beigel%jbeigel@niaid.nih.gov%1,                           Pablo%Tebas%NULL%4,                           Marie-Carmelle%Elie-Turenne%NULL%4,                           Ednan%Bajwa%NULL%2,                           Todd E%Bell%NULL%2,                           Charles B%Cairns%NULL%2,                           Shmuel%Shoham%NULL%3,                           Jaime G%Deville%NULL%2,                           Eric%Feucht%NULL%2,                           Judith%Feinberg%NULL%2,                           Thomas%Luke%NULL%1,                           Kanakatte%Raviprakash%NULL%3,                           Janine%Danko%NULL%2,                           Dorothy%O'Neil%NULL%1,                           Julia A%Metcalf%NULL%1,                           Karen%King%NULL%1,                           Timothy H%Burgess%NULL%1,                           Evgenia%Aga%NULL%3,                           H Clifford%Lane%NULL%2,                           Michael D%Hughes%NULL%3,                           Richard T%Davey%NULL%3,                           Pablo%Tebas%NULL%0,                           Joseph%Quinn%NULL%1,                           Yan%Jiang%NULL%1,                           Marie-Carmelle%Elie-Turenne%NULL%0,                           Robyn%Hoelle%NULL%1,                           Nicole%Iovine%NULL%1,                           Robert Shawn%Wills%NULL%1,                           Socorro%Pata%NULL%1,                           Monique%Huggins%NULL%1,                           Belinda%Manukian%NULL%1,                           Ednan%Bajwa%NULL%0,                           Carrie%Holland%NULL%1,                           Kelsey%Brait%NULL%1,                           Taylor%Hunt%NULL%1,                           Christopher%Stowell%NULL%1,                           Amy%Slater%NULL%1,                           Todd E%Bell%NULL%0,                           Mary%Townsends%NULL%1,                           Charles B%Cairns%NULL%0,                           Eugenia B%Quackenbush%NULL%1,                           Yara A%Park%NULL%1,                           Paul Gaither%Jordan%NULL%1,                           Cherie%Blanchet%NULL%1,                           Kevin%Chronowski%NULL%1,                           Kathleen%Alvarez%NULL%1,                           Shmuel%Shoham%NULL%0,                           Darin%Ostrander%NULL%1,                           Terry%Woessner%NULL%1,                           Sandra%Thoman%NULL%1,                           Jaime G%Deville%NULL%0,                           James%Lin%NULL%1,                           Alyssa%Ziman%NULL%1,                           Kavita%Shankar%NULL%1,                           Eric%Feucht%NULL%0,                           Tom%Blok%NULL%1,                           Don%Batts%NULL%1,                           Bob%Beck%NULL%1,                           Gail%Massey%NULL%1,                           Carol%Bradley%NULL%1,                           Judith%Feinberg%NULL%0,                           Patricia%Carey%NULL%1,                           Jenifer%Baer%NULL%1,                           Eva Moore%Whitehead%NULL%1,                           Sharon%Kohrs%NULL%1,                           Robert%Giulitto%NULL%1,                           Christina%Schofield%NULL%2,                           Mary%Fairchok%NULL%1,                           Susan%Chambers%NULL%1,                           Cindy%Baker%NULL%1,                           NULL%RN%NULL%1,                           Michelle%Parker%NULL%1,                           Marta%Harshbarger%NULL%1,                           M Hong%Nguyen%NULL%1,                           Mary Ellen%Carey%NULL%1,                           Julie%Paronish%NULL%1,                           Frank%Cornell%NULL%1,                           Jim%Cramer%NULL%1,                           Diana Lynn%Pakstis%NULL%1,                           Michael G%Ison%NULL%1,                           Richard%Wunderink%NULL%1,                           Marshall%Glesby%NULL%1,                           Kirsis%Ham%NULL%1,                           Valery%Hughes%NULL%1,                           Melissa%Cushing%NULL%0,                           Cheryl%Goss%NULL%1,                           Joanne%Grenade%NULL%1,                           Pauline K%Park%NULL%1,                           Lena M%Napolitano%NULL%1,                           Krishnan%Raghavendran%NULL%1,                           Robert C%Hyzy%NULL%1,                           Robertson%Davenport%NULL%1,                           Kristin%Brierley%NULL%1,                           Theresa%Downs%NULL%1,                           Michelle Ng%Gong%NULL%1,                           Joan%Uehlinger%NULL%1,                           Michael%Lin%NULL%2,                           Janice%Fritsche%NULL%1,                           Tondria%Green%NULL%1,                           Bruce%McLeod%NULL%1,                           Deena%Patel%NULL%1,                           Mary F%Bavaro%NULL%1,                           Robert%Deiss%NULL%1,                           Carolyn%Brandt%NULL%1,                           Stephanie%Cammarata%NULL%1,                           Allan%Kremp%NULL%1,                           Karine%Hollis-Perry%NULL%1,                           Tahaniyat%Lalani%NULL%1,                           Susan%Banks%NULL%1,                           Jacqueline%Johnson%NULL%1,                           Jason%Maguire%NULL%1,                           Janet%McNiff%NULL%1,                           Leslie E%Rigg%NULL%1,                           Anuradha%Ganesan%NULL%1,                           Irma%Barahona%NULL%1,                           Janine%Danko%NULL%0,                           Steven%Spencer%NULL%1,                           David%Stagliano%NULL%1,                           Timothy%Burgess%NULL%1,                           Daniel%Talmor%NULL%1,                           Monique%Mohammed%NULL%1,                           Valerie%Banner-Goodspeed%NULL%1,                           Robert%Salata%NULL%1,                           Robert%Finberg%NULL%2,                           Jennifer%Wang%NULL%1,                           Karen%Longtine%NULL%1,                           Jaclyn%Longtine%NULL%1,                           Mellissa%O'Neil%NULL%1,                           Philippe R%Bauer%NULL%1,                           Ognjen%Gajic%NULL%1,                           Suanne M%Weist%NULL%1,                           Jonathan%Sevransky%NULL%1,                           Mona%Brown%NULL%1,                           John%Roback%NULL%1,                           John%Oropello%NULL%1,                           Bridget%Twohig%NULL%1,                           Jeffrey%Jhang%NULL%1,                           Rahgu%Seethala%NULL%1,                           Wilbur H%Chen%NULL%1,                           Magali%Fontaine%NULL%1,                           Kapil%Saharia%NULL%1,                           Jennifer%Husson%NULL%1,                           Roberta%DeBiasi%NULL%1,                           Jurran L%Wilson%NULL%1,                           Valli Ree%Criss%NULL%1,                           Jocelyn%Voell%NULL%1,                           Susan%Leitman%NULL%1,                           James Wade%Atkins%NULL%1,                           Hemaxi%Patel%NULL%1,                           Traci%Paige%NULL%1,                           Cathy%Cantilena%NULL%1,                           Donald%Siegel%NULL%1,                           Faye%DeMuth%NULL%1,                           Craig H%Fletcher%NULL%1,                           J Peter R%Pelletier%NULL%1,                           Hassan%Alnuaimat%NULL%1,                           Michelle%Pourde%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Arvind%Gharbharan%NULL%1,                           Carlijn C. E.%Jordans%NULL%1,                           Corine%GeurtsvanKessel%NULL%1,                           Jan G.%den Hollander%NULL%2,                           Jan G.%den Hollander%NULL%0,                           Faiz%Karim%NULL%1,                           Femke P. N.%Mollema%NULL%1,                           Janneke E.%Stalenhoef – Schukken%NULL%1,                           Anthonius%Dofferhoff%NULL%2,                           Anthonius%Dofferhoff%NULL%0,                           Inge%Ludwig%NULL%1,                           Adrianus%Koster%NULL%1,                           Robert-Jan%Hassing%NULL%1,                           Jeannet C.%Bos%NULL%1,                           Geert R.%van Pottelberge%NULL%1,                           Imro N.%Vlasveld%NULL%1,                           Heidi S. M.%Ammerlaan%NULL%1,                           Elena M.%van Leeuwen – Segarceanu%NULL%1,                           Jelle%Miedema%NULL%1,                           Menno%van der Eerden%NULL%1,                           Thijs J.%Schrama%NULL%1,                           Grigorios%Papageorgiou%NULL%2,                           Grigorios%Papageorgiou%NULL%0,                           Peter%te Boekhorst%NULL%1,                           Francis H.%Swaneveld%NULL%1,                           Yvonne M.%Mueller%NULL%1,                           Marco W. J.%Schreurs%NULL%2,                           Marco W. J.%Schreurs%NULL%0,                           Jeroen J. A.%van Kampen%NULL%1,                           Barry%Rockx%NULL%1,                           Nisreen M. A.%Okba%NULL%2,                           Nisreen M. A.%Okba%NULL%0,                           Peter D.%Katsikis%NULL%2,                           Peter D.%Katsikis%NULL%0,                           Marion P. G.%Koopmans%NULL%2,                           Marion P. G.%Koopmans%NULL%0,                           Bart L.%Haagmans%NULL%2,                           Bart L.%Haagmans%NULL%0,                           Casper%Rokx%c.rokx@erasmusmc.nl%2,                           Casper%Rokx%c.rokx@erasmusmc.nl%0,                           Bart J. A.%Rijnders%NULL%2,                           Bart J. A.%Rijnders%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anup%Agarwal%NULL%1,                           Aparna%Mukherjee%NULL%2,                           Gunjan%Kumar%NULL%3,                           Gunjan%Kumar%NULL%0,                           Pranab%Chatterjee%NULL%2,                           Tarun%Bhatnagar%NULL%2,                           Pankaj%Malhotra%NULL%2,                           NULL%NULL%NULL%0,                           NULL%NULL%NULL%0,                           Anup%Agarwal%NULL%1,                           Aparna%Mukherjee%NULL%0,                           Gunjan%Kumar%NULL%0,                           Pranab%Chatterjee%NULL%0,                           Tarun%Bhatnagar%NULL%0,                           Pankaj%Malhotra%NULL%0,                           B%Latha%NULL%1,                           Sunita%Bundas%NULL%1,                           Vivek%Kumar%NULL%2,                           Ravi%Dosi%NULL%1,                           Janak Kumar%Khambholja%NULL%1,                           Rosemarie%de Souza%NULL%1,                           Raja Rao%Mesipogu%NULL%1,                           Saurabh%Srivastava%NULL%1,                           Simmi%Dube%NULL%1,                           Kiran%Chaudhary%NULL%1,                           S%Subash%NULL%1,                           S%Anbuselvi%NULL%1,                           V%Rajendran%NULL%1,                           A%Sundararajaperumal%NULL%1,                           P%Balamanikandan%NULL%1,                           R S Uma%Maheswari%NULL%1,                           R%Jayanthi%NULL%1,                           S%Ragunanthanan%NULL%1,                           Sudhir%Bhandari%NULL%1,                           Ajeet%Singh%NULL%1,                           Ashok%Pal%NULL%1,                           Anjali%Handa%NULL%1,                           Govind%Rankawat%NULL%1,                           Ketan%Kargirwar%NULL%1,                           Joyce%Regi%NULL%1,                           Darshana%Rathod%NULL%1,                           Edwin%Pathrose%NULL%1,                           Nirankar%Bhutaka%NULL%1,                           Mayur H%Patel%NULL%1,                           Rahul J%Verma%NULL%1,                           Kamal%Malukani%NULL%1,                           Shivani%Patel%NULL%1,                           Apurv%Thakur%NULL%1,                           Satish%Joshi%NULL%1,                           Rashmi%Kulkarni%NULL%1,                           Nilay N%Suthar%NULL%1,                           Nehal M%Shah%NULL%1,                           Hemang M%Purohit%NULL%1,                           Cherry K%Shah%NULL%1,                           Monila N%Patel%NULL%1,                           Saket%Shah%NULL%1,                           Smit T%Shah%NULL%1,                           Tehsim%Memon%NULL%1,                           Vishal R%Beriwala%NULL%1,                           Kusum%Jashnani%NULL%1,                           Fatema%Ezzy%NULL%1,                           Simran%Agrawal%NULL%1,                           Rakesh%Bhadade%NULL%1,                           MN%Atish%NULL%1,                           Tushar%Madke%NULL%1,                           Vikas%Kavishwar%NULL%1,                           Ramesh%Waghmare%NULL%1,                           Nitin%Valvi%NULL%1,                           B Thrilok%Chander%NULL%1,                           A Vinaya%Sekhar%NULL%1,                           Akhilesh Kumar%Maurya%NULL%1,                           K%Hemanth%NULL%1,                           K%Nagamani%NULL%1,                           K%Sudha%NULL%1,                           T Ravi%Chandra%NULL%1,                           K Tushara%Rao%NULL%1,                           J%Vyshnavi%NULL%1,                           Rashmi%Upadhyay%NULL%1,                           Shalini%Bahadur%NULL%1,                           Rambha%Pathak%NULL%1,                           Shikha%Seth%NULL%1,                           Rakesh%Gupta%NULL%1,                           Rita%Saxena%NULL%1,                           Preksha%Dwivedi%NULL%1,                           Reeni%Malik%NULL%1,                           Deepti%Chourasia%NULL%1,                           Jaya%Lalwani%NULL%1,                           UM%Sharma%NULL%1,                           JL%Marko%NULL%1,                           Amit%Suri%NULL%1,                           Vijay%Kumar%NULL%1,                           Rajnish%Kaushik%NULL%1,                           Parul%Kodan%NULL%1,                           Bhabani Prasad%Acharya%NULL%1,                           Kuldeep Kumar%Gaur%NULL%1,                           Anubhav%Gupta%NULL%1,                           Prerna%Sachdeva%NULL%1,                           Shruti%Dogra%NULL%1,                           Aikaj%Jindal%NULL%1,                           M Joseph%John%NULL%1,                           Avtar Singh%Dhanju%NULL%1,                           Ranjana%Khetrepal%NULL%1,                           Neeraj%Sharma%NULL%1,                           Neetu%Kukar%NULL%1,                           Divya%Kavita%NULL%1,                           Rajesh%Kumar%NULL%1,                           Rajesh%Mahajan%NULL%1,                           Gurpreet%Singh%NULL%1,                           Jaspreet%Kaur%NULL%1,                           Raminder Pal%Singh%NULL%1,                           Rajni%Bassi%NULL%1,                           Swapneil%Parikh%NULL%1,                           Om%Shrivastav%NULL%1,                           Jayanthi%Shastri%NULL%1,                           Maherra%Desai%NULL%1,                           Shreevatsa%Udupa%NULL%1,                           Varun A%Bafna%NULL%1,                           Vijay%Barge%NULL%1,                           Rajendra%Madane%NULL%1,                           Sheetal%Yadav%NULL%1,                           Sanjeev%Misra%NULL%1,                           Archana%Bajpayee%NULL%1,                           M K%Garg%NULL%1,                           G K%Bohra%NULL%1,                           Vijaylakshmi%Nag%NULL%1,                           Puneeth Babu%Anne%NULL%1,                           Mohd%Nadeem%NULL%1,                           Pallavi%Singh%NULL%1,                           Ram%Niwas%NULL%1,                           Niranjan Shiwaji%Khaire%NULL%1,                           Rattiram%Sharma%NULL%1,                           Mini P%Singh%NULL%1,                           Naresh%Sachdeva%NULL%1,                           Suchet%Sachdev%NULL%1,                           Rekha%Hans%NULL%1,                           Vikas%Suri%NULL%1,                           LN%Yaddanapudi%NULL%1,                           PVM%Lakshmi%NULL%1,                           Neha%Singh%NULL%1,                           Divendu%Bhushan%NULL%1,                           Neeraj%Kumar%NULL%1,                           Muralidhar%Tambe%NULL%1,                           Sonali%Salvi%NULL%1,                           Nalini%Kadgi%NULL%1,                           Shashikala%Sangle%NULL%1,                           Leena%Nakate%NULL%1,                           Samir%Joshi%NULL%1,                           Rajesh%Karyakarte%NULL%1,                           Suraj%Goyanka%NULL%1,                           Nimisha%Sharma%NULL%1,                           Nikhil%Verma%NULL%1,                           Asim%Das%NULL%1,                           Monika%Bahl%NULL%1,                           Nitya%Wadhwa%NULL%1,                           Shreepad%Bhat%NULL%1,                           Shweta%Deshmukh%NULL%1,                           Vrushali%Wagh%NULL%1,                           Atul%Kulkarni%NULL%1,                           Tanvi%Yardi%NULL%1,                           Ram S%Kalgud%NULL%1,                           Purushottam%Reddy%NULL%1,                           Kavitha%Yevoor%NULL%1,                           Prashanth%Gajula%NULL%1,                           Vivek%Maleyur%NULL%1,                           S%Medini%NULL%1,                           HN%Mohith%NULL%1,                           Anil%Gurtoo%NULL%1,                           Ritika%Sud%NULL%1,                           Sangeeta%Pahuja%NULL%1,                           Anupam%Prakash%NULL%1,                           Parijat%Gogoi%NULL%1,                           Shailja%Shukla%NULL%1,                           D Himanshu%Reddy%NULL%1,                           Tulika%Chandra%NULL%1,                           Saurabh%Pandey%NULL%1,                           Pradeep%Maurya%NULL%1,                           Wahid%Ali%NULL%1,                           Vivek%Kumar%NULL%0,                           Kamlesh%Upadhyay%NULL%1,                           Nidhi%Bhatnagar%NULL%1,                           Nilima%Shah%NULL%1,                           Mamta%Shah%NULL%1,                           Tarak%Patel%NULL%1,                           Ram Mohan%Jaiswal%NULL%1,                           Ashish%Jain%NULL%1,                           Shweta%Sharma%NULL%1,                           Puneet%Rijhwani%NULL%1,                           Naveen%Gupta%NULL%1,                           Tinkal C%Patel%NULL%1,                           Mahesh G%Solu%NULL%1,                           Jitendra%Patel%NULL%1,                           Yash R%Shah%NULL%1,                           Mayur%Jarag%NULL%1,                           Varsha%Godbole%NULL%1,                           Meenakshi%Shah%NULL%1,                           Rikin%Raj%NULL%1,                           Irfan%Nagori%NULL%1,                           Pramod R%Jha%NULL%1,                           Arti D%Shah%NULL%1,                           Gowtham%Yeeli%NULL%1,                           Archit%Jain%NULL%1,                           Rooppreet Kaur%Gill%NULL%1,                           KV Sreedhar%Babu%NULL%1,                           B Suresh%Babu%NULL%1,                           Alladi%Mohan%NULL%1,                           B%Vengamma%NULL%1,                           K Chandra%Sekhar%NULL%1,                           Srinivasulu%Damam%NULL%1,                           K%Narsimhulu%NULL%1,                           C%Aparna%NULL%1,                           G%Baleswari%NULL%1,                           K Ravindranath%Reddy%NULL%1,                           P%Chandrasekhar%NULL%1,                           Sunil Jodharam%Panjwani%NULL%1,                           Pragnesh H%Shah%NULL%1,                           Manish%Barvaliya%NULL%1,                           Kairavi%Desai%NULL%1,                           Pankaj J%Akholkar%NULL%1,                           Milind%Baldi%NULL%1,                           Ashok%Yadav%NULL%1,                           Manoj%Gupta%NULL%1,                           Nitin%Rawat%NULL%1,                           Dilip%Chawda%NULL%1,                           M%Natarajan%NULL%1,                           M%Sintha%NULL%1,                           David Pradeep%Kumar%NULL%1,                           Fathhur%Rabbani%NULL%1,                           Vrushali Khirid%Khadke%NULL%1,                           Dattatray%Patki%NULL%1,                           Sonali%Marathe%NULL%1,                           Clyde%D’Souza%NULL%1,                           Vipul%Tadha%NULL%1,                           Satyam%Arora%NULL%1,                           Devendra Kumar%Gupta%NULL%1,                           Seema%Dua%NULL%1,                           Nitu%Chauhan%NULL%1,                           Ajeet Singh%Chahar%NULL%1,                           Joy John%Mammen%NULL%1,                           Snehil%Kumar%NULL%1,                           Dolly%Daniel%NULL%1,                           Ravindraa%Singh%NULL%1,                           Venkatesh%Dhat%NULL%1,                           Yogesh%Agarwal%NULL%1,                           Sohini%Arora%NULL%1,                           Ashish%Pathak%NULL%1,                           Manju%Purohit%NULL%1,                           Ashish%Sharma%NULL%1,                           Jayashree%Sharma%NULL%1,                           Manisha%Madkaikar%NULL%1,                           Kavita%Joshi%NULL%1,                           Reetika Malik%Yadav%NULL%1,                           Swarupa%Bhagwat%NULL%1,                           Niteen D%Karnik%NULL%1,                           Yojana A%Gokhale%NULL%1,                           Leena%Naik%NULL%1,                           Sangita%Margam%NULL%1,                           Santasabuj%Das%NULL%1,                           Alka%Turuk%NULL%1,                           V Saravana%Kumar%NULL%1,                           K%Kanagasabai%NULL%1,                           R%Sabarinathan%NULL%1,                           Gururaj%Deshpande%NULL%1,                           Sharda%Sharma%NULL%1,                           Rashmi%Gunjikar%NULL%1,                           Anita%Shete%NULL%1,                           Darpan%Phagiwala%NULL%1,                           Chetan%Patil%NULL%1,                           Snehal%Shingade%NULL%1,                           Kajal%Jarande%NULL%1,                           Himanshu%Kaushal%NULL%1,                           Pragya%Yadav%NULL%1,                           Gajanan%Sapkal%NULL%1,                           Priya%Abraham%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ivan FN%Hung%NULL%1,                           Kelvin KW%To%NULL%1,                           Cheuk-Kwong%Lee%NULL%0,                           Kar-Lung%Lee%NULL%0,                           Kenny%Chan%NULL%0,                           Wing-Wah%Yan%NULL%1,                           Raymond%Liu%NULL%0,                           Chi-Leung%Watt%NULL%1,                           Wai-Ming%Chan%NULL%0,                           Kang-Yiu%Lai%NULL%0,                           Chi-Kwan%Koo%NULL%1,                           Tom%Buckley%NULL%1,                           Fu-Loi%Chow%NULL%0,                           Kwan-Keung%Wong%NULL%1,                           Hok-Sum%Chan%NULL%1,                           Chi-Keung%Ching%NULL%1,                           Bone SF%Tang%NULL%1,                           Candy CY%Lau%NULL%1,                           Iris WS%Li%NULL%1,                           Shao-Haei%Liu%NULL%0,                           Kwok-Hung%Chan%NULL%0,                           Che-Kit%Lin%NULL%0,                           Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Y. O. Y.%Soo%NULL%1,                           Y.%Cheng%NULL%1,                           R.%Wong%NULL%2,                           D. S.%Hui%NULL%1,                           C. K.%Lee%NULL%2,                           K. K. S.%Tsang%NULL%1,                           M. H. L.%Ng%NULL%2,                           P.%Chan%NULL%2,                           G.%Cheng%NULL%2,                           J. J. Y.%Sung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hongjie%Yu%NULL%1,                           Zhancheng%Gao%NULL%0,                           Zijian%Feng%NULL%2,                           Yuelong%Shu%NULL%1,                           Nijuan%Xiang%NULL%2,                           Lei%Zhou%NULL%2,                           Yang%Huai%NULL%1,                           Luzhao%Feng%NULL%0,                           Zhibin%Peng%NULL%1,                           Zhongjie%Li%NULL%1,                           Cuiling%Xu%NULL%1,                           Junhua%Li%NULL%0,                           Chengping%Hu%NULL%1,                           Qun%Li%NULL%1,                           Xiaoling%Xu%NULL%1,                           Xuecheng%Liu%NULL%1,                           Zigui%Liu%NULL%1,                           Longshan%Xu%NULL%1,                           Yusheng%Chen%NULL%1,                           Huiming%Luo%NULL%1,                           Liping%Wei%NULL%1,                           Xianfeng%Zhang%NULL%1,                           Jianbao%Xin%NULL%1,                           Junqiao%Guo%NULL%1,                           Qiuyue%Wang%NULL%1,                           Zhengan%Yuan%NULL%1,                           Longnv%Zhou%NULL%1,                           Kunzhao%Zhang%NULL%1,                           Wei%Zhang%NULL%0,                           Jinye%Yang%NULL%1,                           Xiaoning%Zhong%NULL%1,                           Shichang%Xia%NULL%1,                           Lanjuan%Li%NULL%0,                           Jinquan%Cheng%NULL%1,                           Erdang%Ma%NULL%1,                           Pingping%He%NULL%1,                           Shui Shan%Lee%NULL%1,                           Yu%Wang%NULL%3,                           Timothy M.%Uyeki%NULL%0,                           Weizhong%Yang%NULL%1,                           Joel Mark%Montgomery%NULL%0,                           Joel Mark%Montgomery%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Y.%Cheng%NULL%1,                           R.%Wong%NULL%0,                           Y. O. Y.%Soo%NULL%1,                           W. S.%Wong%NULL%1,                           C. K.%Lee%NULL%0,                           M. H. L.%Ng%NULL%0,                           P.%Chan%NULL%0,                           K. C.%Wong%NULL%1,                           C. B.%Leung%NULL%1,                           G.%Cheng%gcheng@cuhk.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[Kai%Duan%NULL%1,                           Bende%Liu%NULL%2,                           Bende%Liu%NULL%0,                           Cesheng%Li%NULL%1,                           Huajun%Zhang%NULL%1,                           Ting%Yu%NULL%0,                           Ting%Yu%NULL%0,                           Jieming%Qu%NULL%0,                           Min%Zhou%NULL%0,                           Min%Zhou%NULL%0,                           Li%Chen%NULL%3,                           Li%Chen%NULL%0,                           Shengli%Meng%NULL%2,                           Shengli%Meng%NULL%0,                           Yong%Hu%NULL%1,                           Cheng%Peng%NULL%1,                           Mingchao%Yuan%NULL%1,                           Jinyan%Huang%NULL%1,                           Zejun%Wang%NULL%2,                           Zejun%Wang%NULL%0,                           Jianhong%Yu%NULL%1,                           Xiaoxiao%Gao%NULL%1,                           Dan%Wang%NULL%1,                           Xiaoqi%Yu%NULL%1,                           Li%Li%NULL%0,                           Li%Li%NULL%0,                           Jiayou%Zhang%NULL%2,                           Jiayou%Zhang%NULL%0,                           Xiao%Wu%NULL%1,                           Bei%Li%NULL%1,                           Yanping%Xu%NULL%1,                           Wei%Chen%NULL%0,                           Wei%Chen%NULL%0,                           Yan%Peng%NULL%1,                           Yeqin%Hu%NULL%1,                           Lianzhen%Lin%NULL%1,                           Xuefei%Liu%NULL%1,                           Shihe%Huang%NULL%1,                           Zhijun%Zhou%NULL%1,                           Lianghao%Zhang%NULL%1,                           Yue%Wang%NULL%1,                           Zhi%Zhang%NULL%1,                           Kun%Deng%NULL%1,                           Zhiwu%Xia%NULL%1,                           Qin%Gong%NULL%1,                           Wei%Zhang%NULL%0,                           Xiaobei%Zheng%NULL%1,                           Ying%Liu%NULL%0,                           Huichuan%Yang%NULL%1,                           Dongbo%Zhou%NULL%1,                           Ding%Yu%NULL%1,                           Jifeng%Hou%NULL%1,                           Zhengli%Shi%NULL%0,                           Saijuan%Chen%NULL%1,                           Zhu%Chen%NULL%1,                           Xinxin%Zhang%NULL%0,                           Xiaoming%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[F.%Sahr%NULL%1,                           R.%Ansumana%rashidansumana@gmail.com%1,                           T.A.%Massaquoi%NULL%1,                           B.R.%Idriss%NULL%1,                           F.R.%Sesay%NULL%1,                           J.M.%Lamin%NULL%1,                           S.%Baker%NULL%1,                           S.%Nicol%NULL%1,                           B.%Conton%NULL%1,                           W.%Johnson%NULL%1,                           O.T.%Abiri%NULL%1,                           O.%Kargbo%NULL%1,                           P.%Kamara%NULL%1,                           A.%Goba%NULL%1,                           J.B.W.%Russell%NULL%1,                           S.M.%Gevao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qing-Lei%Zeng%zengqinglei2009@163.com%1,                           Zu-Jiang%Yu%NULL%1,                           Jian-Jun%Gou%NULL%1,                           Guang-Ming%Li%NULL%1,                           Shu-Huan%Ma%NULL%1,                           Guo-Fan%Zhang%NULL%1,                           Jiang-Hai%Xu%NULL%1,                           Wan-Bao%Lin%NULL%1,                           Guang-Lin%Cui%NULL%1,                           Min-Min%Zhang%NULL%1,                           Cheng%Li%NULL%1,                           Ze-Shuai%Wang%NULL%1,                           Zhi-Hao%Zhang%NULL%1,                           Zhang-Suo%Liu%zengqinglei2009@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Hassan%Abolghasemi%NULL%1,                           Peyman%Eshghi%NULL%1,                           Abdol Majid%Cheraghali%NULL%1,                           Abbas Ali%Imani Fooladi%NULL%1,                           Farzaneh%Bolouki Moghaddam%NULL%1,                           Sina%Imanizadeh%NULL%1,                           Matin%Moeini Maleki%NULL%1,                           Mohammad%Ranjkesh%NULL%1,                           Mohammad%Rezapour%NULL%1,                           Ali%Bahramifar%NULL%1,                           Behzad%Einollahi%NULL%1,                           Mohammad Javad%Hosseini%NULL%1,                           Nematollah Joneidi%Jafari%NULL%1,                           Mohamad%Nikpouraghdam%NULL%1,                           Nariman%Sadri%NULL%1,                           Mokhtar%Tazik%NULL%1,                           Shanaz%Sali%NULL%1,                           Shamsi%Okati%NULL%1,                           Elham%Askari%NULL%1,                           Payam%Tabarsi%NULL%1,                           Jafar%Aslani%NULL%1,                           Ehsan%Sharifipour%NULL%1,                           Mohammad Hossein%Jarahzadeh%NULL%1,                           Nastaran%Khodakarim%NULL%1,                           Mahmood%Salesi%NULL%1,                           Ramezan%Jafari%NULL%1,                           Samira%Shahverdi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[John H%Beigel%jbeigel@niaid.nih.gov%1,                            Pablo%Tebas%NULL%2,                            Marie-Carmelle%Elie-Turenne%NULL%2,                            Ednan%Bajwa%NULL%2,                            Todd E%Bell%NULL%2,                            Charles B%Cairns%NULL%2,                            Shmuel%Shoham%NULL%2,                            Jaime G%Deville%NULL%2,                            Eric%Feucht%NULL%2,                            Judith%Feinberg%NULL%2,                            Thomas%Luke%NULL%1,                            Kanakatte%Raviprakash%NULL%1,                            Janine%Danko%NULL%2,                            Dorothy%O'Neil%NULL%1,                            Julia A%Metcalf%NULL%1,                            Karen%King%NULL%1,                            Timothy H%Burgess%NULL%1,                            Evgenia%Aga%NULL%1,                            H Clifford%Lane%NULL%1,                            Michael D%Hughes%NULL%1,                            Richard T%Davey%NULL%1,                            Pablo%Tebas%NULL%0,                            Joseph%Quinn%NULL%1,                            Yan%Jiang%NULL%1,                            Marie-Carmelle%Elie-Turenne%NULL%0,                            Robyn%Hoelle%NULL%1,                            Nicole%Iovine%NULL%1,                            Robert Shawn%Wills%NULL%1,                            Socorro%Pata%NULL%1,                            Monique%Huggins%NULL%1,                            Belinda%Manukian%NULL%1,                            Ednan%Bajwa%NULL%0,                            Carrie%Holland%NULL%1,                            Kelsey%Brait%NULL%1,                            Taylor%Hunt%NULL%1,                            Christopher%Stowell%NULL%1,                            Amy%Slater%NULL%1,                            Todd E%Bell%NULL%0,                            Mary%Townsends%NULL%1,                            Charles B%Cairns%NULL%0,                            Eugenia B%Quackenbush%NULL%1,                            Yara A%Park%NULL%1,                            Paul Gaither%Jordan%NULL%1,                            Cherie%Blanchet%NULL%1,                            Kevin%Chronowski%NULL%1,                            Kathleen%Alvarez%NULL%1,                            Shmuel%Shoham%NULL%0,                            Darin%Ostrander%NULL%1,                            Terry%Woessner%NULL%1,                            Sandra%Thoman%NULL%1,                            Jaime G%Deville%NULL%0,                            James%Lin%NULL%1,                            Alyssa%Ziman%NULL%1,                            Kavita%Shankar%NULL%1,                            Eric%Feucht%NULL%0,                            Tom%Blok%NULL%1,                            Don%Batts%NULL%1,                            Bob%Beck%NULL%1,                            Gail%Massey%NULL%1,                            Carol%Bradley%NULL%1,                            Judith%Feinberg%NULL%0,                            Patricia%Carey%NULL%1,                            Jenifer%Baer%NULL%1,                            Eva Moore%Whitehead%NULL%1,                            Sharon%Kohrs%NULL%1,                            Robert%Giulitto%NULL%1,                            Christina%Schofield%NULL%1,                            Mary%Fairchok%NULL%1,                            Susan%Chambers%NULL%1,                            Cindy%Baker%NULL%1,                            NULL%RN%NULL%1,                            Michelle%Parker%NULL%1,                            Marta%Harshbarger%NULL%1,                            M Hong%Nguyen%NULL%1,                            Mary Ellen%Carey%NULL%1,                            Julie%Paronish%NULL%1,                            Frank%Cornell%NULL%1,                            Jim%Cramer%NULL%1,                            Diana Lynn%Pakstis%NULL%1,                            Michael G%Ison%NULL%1,                            Richard%Wunderink%NULL%1,                            Marshall%Glesby%NULL%1,                            Kirsis%Ham%NULL%1,                            Valery%Hughes%NULL%1,                            Melissa%Cushing%NULL%0,                            Cheryl%Goss%NULL%1,                            Joanne%Grenade%NULL%1,                            Pauline K%Park%NULL%1,                            Lena M%Napolitano%NULL%1,                            Krishnan%Raghavendran%NULL%1,                            Robert C%Hyzy%NULL%1,                            Robertson%Davenport%NULL%1,                            Kristin%Brierley%NULL%1,                            Theresa%Downs%NULL%1,                            Michelle Ng%Gong%NULL%1,                            Joan%Uehlinger%NULL%1,                            Michael%Lin%NULL%1,                            Janice%Fritsche%NULL%1,                            Tondria%Green%NULL%1,                            Bruce%McLeod%NULL%1,                            Deena%Patel%NULL%1,                            Mary F%Bavaro%NULL%1,                            Robert%Deiss%NULL%1,                            Carolyn%Brandt%NULL%1,                            Stephanie%Cammarata%NULL%1,                            Allan%Kremp%NULL%1,                            Karine%Hollis-Perry%NULL%1,                            Tahaniyat%Lalani%NULL%1,                            Susan%Banks%NULL%1,                            Jacqueline%Johnson%NULL%1,                            Jason%Maguire%NULL%1,                            Janet%McNiff%NULL%1,                            Leslie E%Rigg%NULL%1,                            Anuradha%Ganesan%NULL%1,                            Irma%Barahona%NULL%1,                            Janine%Danko%NULL%0,                            Steven%Spencer%NULL%1,                            David%Stagliano%NULL%1,                            Timothy%Burgess%NULL%1,                            Daniel%Talmor%NULL%1,                            Monique%Mohammed%NULL%1,                            Valerie%Banner-Goodspeed%NULL%1,                            Robert%Salata%NULL%1,                            Robert%Finberg%NULL%1,                            Jennifer%Wang%NULL%1,                            Karen%Longtine%NULL%1,                            Jaclyn%Longtine%NULL%1,                            Mellissa%O'Neil%NULL%1,                            Philippe R%Bauer%NULL%1,                            Ognjen%Gajic%NULL%1,                            Suanne M%Weist%NULL%1,                            Jonathan%Sevransky%NULL%1,                            Mona%Brown%NULL%1,                            John%Roback%NULL%1,                            John%Oropello%NULL%1,                            Bridget%Twohig%NULL%1,                            Jeffrey%Jhang%NULL%1,                            Rahgu%Seethala%NULL%1,                            Wilbur H%Chen%NULL%1,                            Magali%Fontaine%NULL%1,                            Kapil%Saharia%NULL%1,                            Jennifer%Husson%NULL%1,                            Roberta%DeBiasi%NULL%1,                            Jurran L%Wilson%NULL%1,                            Valli Ree%Criss%NULL%1,                            Jocelyn%Voell%NULL%1,                            Susan%Leitman%NULL%1,                            James Wade%Atkins%NULL%1,                            Hemaxi%Patel%NULL%1,                            Traci%Paige%NULL%1,                            Cathy%Cantilena%NULL%1,                            Donald%Siegel%NULL%1,                            Faye%DeMuth%NULL%1,                            Craig H%Fletcher%NULL%1,                            J Peter R%Pelletier%NULL%1,                            Hassan%Alnuaimat%NULL%1,                            Michelle%Pourde%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Arvind%Gharbharan%NULL%1,                            Carlijn C. E.%Jordans%NULL%1,                            Corine%GeurtsvanKessel%NULL%1,                            Jan G.%den Hollander%NULL%2,                            Jan G.%den Hollander%NULL%0,                            Faiz%Karim%NULL%1,                            Femke P. N.%Mollema%NULL%1,                            Janneke E.%Stalenhoef – Schukken%NULL%1,                            Anthonius%Dofferhoff%NULL%2,                            Anthonius%Dofferhoff%NULL%0,                            Inge%Ludwig%NULL%1,                            Adrianus%Koster%NULL%1,                            Robert-Jan%Hassing%NULL%1,                            Jeannet C.%Bos%NULL%1,                            Geert R.%van Pottelberge%NULL%1,                            Imro N.%Vlasveld%NULL%1,                            Heidi S. M.%Ammerlaan%NULL%1,                            Elena M.%van Leeuwen – Segarceanu%NULL%1,                            Jelle%Miedema%NULL%1,                            Menno%van der Eerden%NULL%1,                            Thijs J.%Schrama%NULL%1,                            Grigorios%Papageorgiou%NULL%2,                            Grigorios%Papageorgiou%NULL%0,                            Peter%te Boekhorst%NULL%1,                            Francis H.%Swaneveld%NULL%1,                            Yvonne M.%Mueller%NULL%1,                            Marco W. J.%Schreurs%NULL%2,                            Marco W. J.%Schreurs%NULL%0,                            Jeroen J. A.%van Kampen%NULL%1,                            Barry%Rockx%NULL%1,                            Nisreen M. A.%Okba%NULL%2,                            Nisreen M. A.%Okba%NULL%0,                            Peter D.%Katsikis%NULL%2,                            Peter D.%Katsikis%NULL%0,                            Marion P. G.%Koopmans%NULL%2,                            Marion P. G.%Koopmans%NULL%0,                            Bart L.%Haagmans%NULL%2,                            Bart L.%Haagmans%NULL%0,                            Casper%Rokx%c.rokx@erasmusmc.nl%2,                            Casper%Rokx%c.rokx@erasmusmc.nl%0,                            Bart J. A.%Rijnders%NULL%2,                            Bart J. A.%Rijnders%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anup%Agarwal%NULL%1,                            Aparna%Mukherjee%NULL%2,                            Gunjan%Kumar%NULL%3,                            Gunjan%Kumar%NULL%0,                            Pranab%Chatterjee%NULL%2,                            Tarun%Bhatnagar%NULL%2,                            Pankaj%Malhotra%NULL%2,                            NULL%NULL%NULL%0,                            NULL%NULL%NULL%0,                            Anup%Agarwal%NULL%1,                            Aparna%Mukherjee%NULL%0,                            Gunjan%Kumar%NULL%0,                            Pranab%Chatterjee%NULL%0,                            Tarun%Bhatnagar%NULL%0,                            Pankaj%Malhotra%NULL%0,                            B%Latha%NULL%1,                            Sunita%Bundas%NULL%1,                            Vivek%Kumar%NULL%2,                            Ravi%Dosi%NULL%1,                            Janak Kumar%Khambholja%NULL%1,                            Rosemarie%de Souza%NULL%1,                            Raja Rao%Mesipogu%NULL%1,                            Saurabh%Srivastava%NULL%1,                            Simmi%Dube%NULL%1,                            Kiran%Chaudhary%NULL%1,                            S%Subash%NULL%1,                            S%Anbuselvi%NULL%1,                            V%Rajendran%NULL%1,                            A%Sundararajaperumal%NULL%1,                            P%Balamanikandan%NULL%1,                            R S Uma%Maheswari%NULL%1,                            R%Jayanthi%NULL%1,                            S%Ragunanthanan%NULL%1,                            Sudhir%Bhandari%NULL%1,                            Ajeet%Singh%NULL%1,                            Ashok%Pal%NULL%1,                            Anjali%Handa%NULL%1,                            Govind%Rankawat%NULL%1,                            Ketan%Kargirwar%NULL%1,                            Joyce%Regi%NULL%1,                            Darshana%Rathod%NULL%1,                            Edwin%Pathrose%NULL%1,                            Nirankar%Bhutaka%NULL%1,                            Mayur H%Patel%NULL%1,                            Rahul J%Verma%NULL%1,                            Kamal%Malukani%NULL%1,                            Shivani%Patel%NULL%1,                            Apurv%Thakur%NULL%1,                            Satish%Joshi%NULL%1,                            Rashmi%Kulkarni%NULL%1,                            Nilay N%Suthar%NULL%1,                            Nehal M%Shah%NULL%1,                            Hemang M%Purohit%NULL%1,                            Cherry K%Shah%NULL%1,                            Monila N%Patel%NULL%1,                            Saket%Shah%NULL%1,                            Smit T%Shah%NULL%1,                            Tehsim%Memon%NULL%1,                            Vishal R%Beriwala%NULL%1,                            Kusum%Jashnani%NULL%1,                            Fatema%Ezzy%NULL%1,                            Simran%Agrawal%NULL%1,                            Rakesh%Bhadade%NULL%1,                            MN%Atish%NULL%1,                            Tushar%Madke%NULL%1,                            Vikas%Kavishwar%NULL%1,                            Ramesh%Waghmare%NULL%1,                            Nitin%Valvi%NULL%1,                            B Thrilok%Chander%NULL%1,                            A Vinaya%Sekhar%NULL%1,                            Akhilesh Kumar%Maurya%NULL%1,                            K%Hemanth%NULL%1,                            K%Nagamani%NULL%1,                            K%Sudha%NULL%1,                            T Ravi%Chandra%NULL%1,                            K Tushara%Rao%NULL%1,                            J%Vyshnavi%NULL%1,                            Rashmi%Upadhyay%NULL%1,                            Shalini%Bahadur%NULL%1,                            Rambha%Pathak%NULL%1,                            Shikha%Seth%NULL%1,                            Rakesh%Gupta%NULL%1,                            Rita%Saxena%NULL%1,                            Preksha%Dwivedi%NULL%1,                            Reeni%Malik%NULL%1,                            Deepti%Chourasia%NULL%1,                            Jaya%Lalwani%NULL%1,                            UM%Sharma%NULL%1,                            JL%Marko%NULL%1,                            Amit%Suri%NULL%1,                            Vijay%Kumar%NULL%1,                            Rajnish%Kaushik%NULL%1,                            Parul%Kodan%NULL%1,                            Bhabani Prasad%Acharya%NULL%1,                            Kuldeep Kumar%Gaur%NULL%1,                            Anubhav%Gupta%NULL%1,                            Prerna%Sachdeva%NULL%1,                            Shruti%Dogra%NULL%1,                            Aikaj%Jindal%NULL%1,                            M Joseph%John%NULL%1,                            Avtar Singh%Dhanju%NULL%1,                            Ranjana%Khetrepal%NULL%1,                            Neeraj%Sharma%NULL%1,                            Neetu%Kukar%NULL%1,                            Divya%Kavita%NULL%1,                            Rajesh%Kumar%NULL%1,                            Rajesh%Mahajan%NULL%1,                            Gurpreet%Singh%NULL%1,                            Jaspreet%Kaur%NULL%1,                            Raminder Pal%Singh%NULL%1,                            Rajni%Bassi%NULL%1,                            Swapneil%Parikh%NULL%1,                            Om%Shrivastav%NULL%1,                            Jayanthi%Shastri%NULL%1,                            Maherra%Desai%NULL%1,                            Shreevatsa%Udupa%NULL%1,                            Varun A%Bafna%NULL%1,                            Vijay%Barge%NULL%1,                            Rajendra%Madane%NULL%1,                            Sheetal%Yadav%NULL%1,                            Sanjeev%Misra%NULL%1,                            Archana%Bajpayee%NULL%1,                            M K%Garg%NULL%1,                            G K%Bohra%NULL%1,                            Vijaylakshmi%Nag%NULL%1,                            Puneeth Babu%Anne%NULL%1,                            Mohd%Nadeem%NULL%1,                            Pallavi%Singh%NULL%1,                            Ram%Niwas%NULL%1,                            Niranjan Shiwaji%Khaire%NULL%1,                            Rattiram%Sharma%NULL%1,                            Mini P%Singh%NULL%1,                            Naresh%Sachdeva%NULL%1,                            Suchet%Sachdev%NULL%1,                            Rekha%Hans%NULL%1,                            Vikas%Suri%NULL%1,                            LN%Yaddanapudi%NULL%1,                            PVM%Lakshmi%NULL%1,                            Neha%Singh%NULL%1,                            Divendu%Bhushan%NULL%1,                            Neeraj%Kumar%NULL%1,                            Muralidhar%Tambe%NULL%1,                            Sonali%Salvi%NULL%1,                            Nalini%Kadgi%NULL%1,                            Shashikala%Sangle%NULL%1,                            Leena%Nakate%NULL%1,                            Samir%Joshi%NULL%1,                            Rajesh%Karyakarte%NULL%1,                            Suraj%Goyanka%NULL%1,                            Nimisha%Sharma%NULL%1,                            Nikhil%Verma%NULL%1,                            Asim%Das%NULL%1,                            Monika%Bahl%NULL%1,                            Nitya%Wadhwa%NULL%1,                            Shreepad%Bhat%NULL%1,                            Shweta%Deshmukh%NULL%1,                            Vrushali%Wagh%NULL%1,                            Atul%Kulkarni%NULL%1,                            Tanvi%Yardi%NULL%1,                            Ram S%Kalgud%NULL%1,                            Purushottam%Reddy%NULL%1,                            Kavitha%Yevoor%NULL%1,                            Prashanth%Gajula%NULL%1,                            Vivek%Maleyur%NULL%1,                            S%Medini%NULL%1,                            HN%Mohith%NULL%1,                            Anil%Gurtoo%NULL%1,                            Ritika%Sud%NULL%1,                            Sangeeta%Pahuja%NULL%1,                            Anupam%Prakash%NULL%1,                            Parijat%Gogoi%NULL%1,                            Shailja%Shukla%NULL%1,                            D Himanshu%Reddy%NULL%1,                            Tulika%Chandra%NULL%1,                            Saurabh%Pandey%NULL%1,                            Pradeep%Maurya%NULL%1,                            Wahid%Ali%NULL%1,                            Vivek%Kumar%NULL%0,                            Kamlesh%Upadhyay%NULL%1,                            Nidhi%Bhatnagar%NULL%1,                            Nilima%Shah%NULL%1,                            Mamta%Shah%NULL%1,                            Tarak%Patel%NULL%1,                            Ram Mohan%Jaiswal%NULL%1,                            Ashish%Jain%NULL%1,                            Shweta%Sharma%NULL%1,                            Puneet%Rijhwani%NULL%1,                            Naveen%Gupta%NULL%1,                            Tinkal C%Patel%NULL%1,                            Mahesh G%Solu%NULL%1,                            Jitendra%Patel%NULL%1,                            Yash R%Shah%NULL%1,                            Mayur%Jarag%NULL%1,                            Varsha%Godbole%NULL%1,                            Meenakshi%Shah%NULL%1,                            Rikin%Raj%NULL%1,                            Irfan%Nagori%NULL%1,                            Pramod R%Jha%NULL%1,                            Arti D%Shah%NULL%1,                            Gowtham%Yeeli%NULL%1,                            Archit%Jain%NULL%1,                            Rooppreet Kaur%Gill%NULL%1,                            KV Sreedhar%Babu%NULL%1,                            B Suresh%Babu%NULL%1,                            Alladi%Mohan%NULL%1,                            B%Vengamma%NULL%1,                            K Chandra%Sekhar%NULL%1,                            Srinivasulu%Damam%NULL%1,                            K%Narsimhulu%NULL%1,                            C%Aparna%NULL%1,                            G%Baleswari%NULL%1,                            K Ravindranath%Reddy%NULL%1,                            P%Chandrasekhar%NULL%1,                            Sunil Jodharam%Panjwani%NULL%1,                            Pragnesh H%Shah%NULL%1,                            Manish%Barvaliya%NULL%1,                            Kairavi%Desai%NULL%1,                            Pankaj J%Akholkar%NULL%1,                            Milind%Baldi%NULL%1,                            Ashok%Yadav%NULL%1,                            Manoj%Gupta%NULL%1,                            Nitin%Rawat%NULL%1,                            Dilip%Chawda%NULL%1,                            M%Natarajan%NULL%1,                            M%Sintha%NULL%1,                            David Pradeep%Kumar%NULL%1,                            Fathhur%Rabbani%NULL%1,                            Vrushali Khirid%Khadke%NULL%1,                            Dattatray%Patki%NULL%1,                            Sonali%Marathe%NULL%1,                            Clyde%D’Souza%NULL%1,                            Vipul%Tadha%NULL%1,                            Satyam%Arora%NULL%1,                            Devendra Kumar%Gupta%NULL%1,                            Seema%Dua%NULL%1,                            Nitu%Chauhan%NULL%1,                            Ajeet Singh%Chahar%NULL%1,                            Joy John%Mammen%NULL%1,                            Snehil%Kumar%NULL%1,                            Dolly%Daniel%NULL%1,                            Ravindraa%Singh%NULL%1,                            Venkatesh%Dhat%NULL%1,                            Yogesh%Agarwal%NULL%1,                            Sohini%Arora%NULL%1,                            Ashish%Pathak%NULL%1,                            Manju%Purohit%NULL%1,                            Ashish%Sharma%NULL%1,                            Jayashree%Sharma%NULL%1,                            Manisha%Madkaikar%NULL%1,                            Kavita%Joshi%NULL%1,                            Reetika Malik%Yadav%NULL%1,                            Swarupa%Bhagwat%NULL%1,                            Niteen D%Karnik%NULL%1,                            Yojana A%Gokhale%NULL%1,                            Leena%Naik%NULL%1,                            Sangita%Margam%NULL%1,                            Santasabuj%Das%NULL%1,                            Alka%Turuk%NULL%1,                            V Saravana%Kumar%NULL%1,                            K%Kanagasabai%NULL%1,                            R%Sabarinathan%NULL%1,                            Gururaj%Deshpande%NULL%1,                            Sharda%Sharma%NULL%1,                            Rashmi%Gunjikar%NULL%1,                            Anita%Shete%NULL%1,                            Darpan%Phagiwala%NULL%1,                            Chetan%Patil%NULL%1,                            Snehal%Shingade%NULL%1,                            Kajal%Jarande%NULL%1,                            Himanshu%Kaushal%NULL%1,                            Pragya%Yadav%NULL%1,                            Gajanan%Sapkal%NULL%1,                            Priya%Abraham%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ivan FN%Hung%NULL%1,                            Kelvin KW%To%NULL%1,                            Cheuk-Kwong%Lee%NULL%1,                            Kar-Lung%Lee%NULL%1,                            Kenny%Chan%NULL%1,                            Wing-Wah%Yan%NULL%1,                            Raymond%Liu%NULL%1,                            Chi-Leung%Watt%NULL%1,                            Wai-Ming%Chan%NULL%1,                            Kang-Yiu%Lai%NULL%1,                            Chi-Kwan%Koo%NULL%1,                            Tom%Buckley%NULL%1,                            Fu-Loi%Chow%NULL%1,                            Kwan-Keung%Wong%NULL%1,                            Hok-Sum%Chan%NULL%1,                            Chi-Keung%Ching%NULL%1,                            Bone SF%Tang%NULL%1,                            Candy CY%Lau%NULL%1,                            Iris WS%Li%NULL%1,                            Shao-Haei%Liu%NULL%1,                            Kwok-Hung%Chan%NULL%2,                            Che-Kit%Lin%NULL%1,                            Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Y. O. Y.%Soo%NULL%1,                            Y.%Cheng%NULL%1,                            R.%Wong%NULL%2,                            D. S.%Hui%NULL%1,                            C. K.%Lee%NULL%2,                            K. K. S.%Tsang%NULL%1,                            M. H. L.%Ng%NULL%2,                            P.%Chan%NULL%2,                            G.%Cheng%NULL%2,                            J. J. Y.%Sung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hongjie%Yu%NULL%1,                            Zhancheng%Gao%NULL%0,                            Zijian%Feng%NULL%2,                            Yuelong%Shu%NULL%1,                            Nijuan%Xiang%NULL%2,                            Lei%Zhou%NULL%2,                            Yang%Huai%NULL%1,                            Luzhao%Feng%NULL%1,                            Zhibin%Peng%NULL%1,                            Zhongjie%Li%NULL%1,                            Cuiling%Xu%NULL%1,                            Junhua%Li%NULL%0,                            Chengping%Hu%NULL%1,                            Qun%Li%NULL%1,                            Xiaoling%Xu%NULL%1,                            Xuecheng%Liu%NULL%1,                            Zigui%Liu%NULL%1,                            Longshan%Xu%NULL%1,                            Yusheng%Chen%NULL%1,                            Huiming%Luo%NULL%1,                            Liping%Wei%NULL%1,                            Xianfeng%Zhang%NULL%1,                            Jianbao%Xin%NULL%1,                            Junqiao%Guo%NULL%1,                            Qiuyue%Wang%NULL%1,                            Zhengan%Yuan%NULL%1,                            Longnv%Zhou%NULL%1,                            Kunzhao%Zhang%NULL%1,                            Wei%Zhang%NULL%0,                            Jinye%Yang%NULL%1,                            Xiaoning%Zhong%NULL%1,                            Shichang%Xia%NULL%1,                            Lanjuan%Li%NULL%0,                            Jinquan%Cheng%NULL%1,                            Erdang%Ma%NULL%1,                            Pingping%He%NULL%1,                            Shui Shan%Lee%NULL%1,                            Yu%Wang%NULL%2,                            Timothy M.%Uyeki%NULL%0,                            Weizhong%Yang%NULL%1,                            Joel Mark%Montgomery%NULL%0,                            Joel Mark%Montgomery%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Y.%Cheng%NULL%1,                            R.%Wong%NULL%0,                            Y. O. Y.%Soo%NULL%1,                            W. S.%Wong%NULL%1,                            C. K.%Lee%NULL%0,                            M. H. L.%Ng%NULL%0,                            P.%Chan%NULL%0,                            K. C.%Wong%NULL%1,                            C. B.%Leung%NULL%1,                            G.%Cheng%gcheng@cuhk.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[Kai%Duan%NULL%1,                            Bende%Liu%NULL%2,                            Bende%Liu%NULL%0,                            Cesheng%Li%NULL%1,                            Huajun%Zhang%NULL%1,                            Ting%Yu%NULL%0,                            Ting%Yu%NULL%0,                            Jieming%Qu%NULL%0,                            Min%Zhou%NULL%0,                            Min%Zhou%NULL%0,                            Li%Chen%NULL%3,                            Li%Chen%NULL%0,                            Shengli%Meng%NULL%2,                            Shengli%Meng%NULL%0,                            Yong%Hu%NULL%1,                            Cheng%Peng%NULL%1,                            Mingchao%Yuan%NULL%1,                            Jinyan%Huang%NULL%1,                            Zejun%Wang%NULL%2,                            Zejun%Wang%NULL%0,                            Jianhong%Yu%NULL%1,                            Xiaoxiao%Gao%NULL%1,                            Dan%Wang%NULL%1,                            Xiaoqi%Yu%NULL%1,                            Li%Li%NULL%0,                            Li%Li%NULL%0,                            Jiayou%Zhang%NULL%2,                            Jiayou%Zhang%NULL%0,                            Xiao%Wu%NULL%1,                            Bei%Li%NULL%1,                            Yanping%Xu%NULL%1,                            Wei%Chen%NULL%0,                            Wei%Chen%NULL%0,                            Yan%Peng%NULL%1,                            Yeqin%Hu%NULL%1,                            Lianzhen%Lin%NULL%1,                            Xuefei%Liu%NULL%1,                            Shihe%Huang%NULL%1,                            Zhijun%Zhou%NULL%1,                            Lianghao%Zhang%NULL%1,                            Yue%Wang%NULL%1,                            Zhi%Zhang%NULL%1,                            Kun%Deng%NULL%1,                            Zhiwu%Xia%NULL%1,                            Qin%Gong%NULL%1,                            Wei%Zhang%NULL%0,                            Xiaobei%Zheng%NULL%1,                            Ying%Liu%NULL%0,                            Huichuan%Yang%NULL%1,                            Dongbo%Zhou%NULL%1,                            Ding%Yu%NULL%1,                            Jifeng%Hou%NULL%1,                            Zhengli%Shi%NULL%0,                            Saijuan%Chen%NULL%1,                            Zhu%Chen%NULL%1,                            Xinxin%Zhang%NULL%0,                            Xiaoming%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[F.%Sahr%NULL%1,                            R.%Ansumana%rashidansumana@gmail.com%1,                            T.A.%Massaquoi%NULL%1,                            B.R.%Idriss%NULL%1,                            F.R.%Sesay%NULL%1,                            J.M.%Lamin%NULL%1,                            S.%Baker%NULL%1,                            S.%Nicol%NULL%1,                            B.%Conton%NULL%1,                            W.%Johnson%NULL%1,                            O.T.%Abiri%NULL%1,                            O.%Kargbo%NULL%1,                            P.%Kamara%NULL%1,                            A.%Goba%NULL%1,                            J.B.W.%Russell%NULL%1,                            S.M.%Gevao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qing-Lei%Zeng%zengqinglei2009@163.com%1,                            Zu-Jiang%Yu%NULL%1,                            Jian-Jun%Gou%NULL%1,                            Guang-Ming%Li%NULL%1,                            Shu-Huan%Ma%NULL%1,                            Guo-Fan%Zhang%NULL%1,                            Jiang-Hai%Xu%NULL%1,                            Wan-Bao%Lin%NULL%1,                            Guang-Lin%Cui%NULL%1,                            Min-Min%Zhang%NULL%1,                            Cheng%Li%NULL%1,                            Ze-Shuai%Wang%NULL%1,                            Zhi-Hao%Zhang%NULL%1,                            Zhang-Suo%Liu%zengqinglei2009@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Hassan%Abolghasemi%NULL%1,                            Peyman%Eshghi%NULL%1,                            Abdol Majid%Cheraghali%NULL%1,                            Abbas Ali%Imani Fooladi%NULL%1,                            Farzaneh%Bolouki Moghaddam%NULL%1,                            Sina%Imanizadeh%NULL%1,                            Matin%Moeini Maleki%NULL%1,                            Mohammad%Ranjkesh%NULL%1,                            Mohammad%Rezapour%NULL%1,                            Ali%Bahramifar%NULL%1,                            Behzad%Einollahi%NULL%1,                            Mohammad Javad%Hosseini%NULL%1,                            Nematollah Joneidi%Jafari%NULL%1,                            Mohamad%Nikpouraghdam%NULL%1,                            Nariman%Sadri%NULL%1,                            Mokhtar%Tazik%NULL%1,                            Shanaz%Sali%NULL%1,                            Shamsi%Okati%NULL%1,                            Elham%Askari%NULL%1,                            Payam%Tabarsi%NULL%1,                            Jafar%Aslani%NULL%1,                            Ehsan%Sharifipour%NULL%1,                            Mohammad Hossein%Jarahzadeh%NULL%1,                            Nastaran%Khodakarim%NULL%1,                            Mahmood%Salesi%NULL%1,                            Ramezan%Jafari%NULL%1,                            Samira%Shahverdi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[John H%Beigel%jbeigel@niaid.nih.gov%0, Pablo%Tebas%NULL%2, Marie-Carmelle%Elie-Turenne%NULL%2, Ednan%Bajwa%NULL%2, Todd E%Bell%NULL%2, Charles B%Cairns%NULL%2, Shmuel%Shoham%NULL%2, Jaime G%Deville%NULL%2, Eric%Feucht%NULL%2, Judith%Feinberg%NULL%2, Thomas%Luke%NULL%1, Kanakatte%Raviprakash%NULL%1, Janine%Danko%NULL%2, Dorothy%O'Neil%NULL%1, Julia A%Metcalf%NULL%1, Karen%King%NULL%1, Timothy H%Burgess%NULL%1, Evgenia%Aga%NULL%1, H Clifford%Lane%NULL%1, Michael D%Hughes%NULL%1, Richard T%Davey%NULL%1, Pablo%Tebas%NULL%0, Joseph%Quinn%NULL%1, Yan%Jiang%NULL%2, Marie-Carmelle%Elie-Turenne%NULL%0, Robyn%Hoelle%NULL%1, Nicole%Iovine%NULL%1, Robert Shawn%Wills%NULL%1, Socorro%Pata%NULL%1, Monique%Huggins%NULL%1, Belinda%Manukian%NULL%1, Ednan%Bajwa%NULL%0, Carrie%Holland%NULL%1, Kelsey%Brait%NULL%1, Taylor%Hunt%NULL%1, Christopher%Stowell%NULL%1, Amy%Slater%NULL%1, Todd E%Bell%NULL%0, Mary%Townsends%NULL%1, Charles B%Cairns%NULL%0, Eugenia B%Quackenbush%NULL%1, Yara A%Park%NULL%1, Paul Gaither%Jordan%NULL%1, Cherie%Blanchet%NULL%1, Kevin%Chronowski%NULL%1, Kathleen%Alvarez%NULL%1, Shmuel%Shoham%NULL%0, Darin%Ostrander%NULL%1, Terry%Woessner%NULL%1, Sandra%Thoman%NULL%1, Jaime G%Deville%NULL%0, James%Lin%NULL%1, Alyssa%Ziman%NULL%1, Kavita%Shankar%NULL%1, Eric%Feucht%NULL%0, Tom%Blok%NULL%1, Don%Batts%NULL%1, Bob%Beck%NULL%1, Gail%Massey%NULL%1, Carol%Bradley%NULL%1, Judith%Feinberg%NULL%0, Patricia%Carey%NULL%1, Jenifer%Baer%NULL%1, Eva Moore%Whitehead%NULL%1, Sharon%Kohrs%NULL%1, Robert%Giulitto%NULL%1, Christina%Schofield%NULL%1, Mary%Fairchok%NULL%1, Susan%Chambers%NULL%1, Cindy%Baker%NULL%1, NULL%RN%NULL%1, Michelle%Parker%NULL%1, Marta%Harshbarger%NULL%1, M Hong%Nguyen%NULL%1, Mary Ellen%Carey%NULL%1, Julie%Paronish%NULL%1, Frank%Cornell%NULL%1, Jim%Cramer%NULL%1, Diana Lynn%Pakstis%NULL%1, Michael G%Ison%NULL%1, Richard%Wunderink%NULL%1, Marshall%Glesby%NULL%1, Kirsis%Ham%NULL%1, Valery%Hughes%NULL%1, Melissa%Cushing%NULL%0, Cheryl%Goss%NULL%1, Joanne%Grenade%NULL%1, Pauline K%Park%NULL%1, Lena M%Napolitano%NULL%1, Krishnan%Raghavendran%NULL%1, Robert C%Hyzy%NULL%1, Robertson%Davenport%NULL%1, Kristin%Brierley%NULL%1, Theresa%Downs%NULL%1, Michelle Ng%Gong%NULL%1, Joan%Uehlinger%NULL%1, Michael%Lin%NULL%1, Janice%Fritsche%NULL%1, Tondria%Green%NULL%1, Bruce%McLeod%NULL%1, Deena%Patel%NULL%1, Mary F%Bavaro%NULL%1, Robert%Deiss%NULL%1, Carolyn%Brandt%NULL%1, Stephanie%Cammarata%NULL%1, Allan%Kremp%NULL%1, Karine%Hollis-Perry%NULL%1, Tahaniyat%Lalani%NULL%1, Susan%Banks%NULL%1, Jacqueline%Johnson%NULL%1, Jason%Maguire%NULL%1, Janet%McNiff%NULL%1, Leslie E%Rigg%NULL%1, Anuradha%Ganesan%NULL%1, Irma%Barahona%NULL%1, Janine%Danko%NULL%0, Steven%Spencer%NULL%1, David%Stagliano%NULL%1, Timothy%Burgess%NULL%1, Daniel%Talmor%NULL%1, Monique%Mohammed%NULL%1, Valerie%Banner-Goodspeed%NULL%1, Robert%Salata%NULL%1, Robert%Finberg%NULL%1, Jennifer%Wang%NULL%1, Karen%Longtine%NULL%1, Jaclyn%Longtine%NULL%1, Mellissa%O'Neil%NULL%1, Philippe R%Bauer%NULL%1, Ognjen%Gajic%NULL%1, Suanne M%Weist%NULL%1, Jonathan%Sevransky%NULL%1, Mona%Brown%NULL%1, John%Roback%NULL%1, John%Oropello%NULL%1, Bridget%Twohig%NULL%1, Jeffrey%Jhang%NULL%3, Rahgu%Seethala%NULL%1, Wilbur H%Chen%NULL%1, Magali%Fontaine%NULL%1, Kapil%Saharia%NULL%1, Jennifer%Husson%NULL%1, Roberta%DeBiasi%NULL%1, Jurran L%Wilson%NULL%1, Valli Ree%Criss%NULL%1, Jocelyn%Voell%NULL%1, Susan%Leitman%NULL%1, James Wade%Atkins%NULL%1, Hemaxi%Patel%NULL%1, Traci%Paige%NULL%1, Cathy%Cantilena%NULL%1, Donald%Siegel%NULL%1, Faye%DeMuth%NULL%1, Craig H%Fletcher%NULL%1, J Peter R%Pelletier%NULL%1, Hassan%Alnuaimat%NULL%1, Michelle%Pourde%NULL%1]</t>
+  </si>
+  <si>
+    <t>Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id="Par1"&gt;In a randomized clinical trial of 86 hospitalized COVID-19 patients comparing standard care to treatment with 300mL convalescent plasma containing high titers of neutralizing SARS-CoV-2 antibodies, no overall clinical benefit was observed.
+ Using a comprehensive translational approach, we unravel the virological and immunological responses following treatment to disentangle which COVID-19 patients may benefit and should be the focus of future studies.
+ Convalescent plasma is safe, does not improve survival, has no effect on the disease course, nor does plasma enhance viral clearance in the respiratory tract, influence SARS-CoV-2 antibody development or serum proinflammatory cytokines levels.
+ Here, we show that the vast majority of patients already had potent neutralizing SARS-CoV-2 antibodies at hospital admission and with comparable titers to carefully selected plasma donors.
+ This resulted in the decision to terminate the trial prematurely.
+ Treatment with convalescent plasma should be studied early in the disease course or at least preceding autologous humoral response development.
+</t>
+  </si>
+  <si>
+    <t>[Arvind%Gharbharan%NULL%0, Carlijn C. E.%Jordans%NULL%1, Corine%GeurtsvanKessel%NULL%1, Jan G.%den Hollander%NULL%2, Jan G.%den Hollander%NULL%0, Faiz%Karim%NULL%1, Femke P. N.%Mollema%NULL%1, Janneke E.%Stalenhoef – Schukken%NULL%1, Anthonius%Dofferhoff%NULL%2, Anthonius%Dofferhoff%NULL%0, Inge%Ludwig%NULL%1, Adrianus%Koster%NULL%1, Robert-Jan%Hassing%NULL%1, Jeannet C.%Bos%NULL%1, Geert R.%van Pottelberge%NULL%1, Imro N.%Vlasveld%NULL%1, Heidi S. M.%Ammerlaan%NULL%1, Elena M.%van Leeuwen – Segarceanu%NULL%1, Jelle%Miedema%NULL%1, Menno%van der Eerden%NULL%1, Thijs J.%Schrama%NULL%1, Grigorios%Papageorgiou%NULL%2, Grigorios%Papageorgiou%NULL%0, Peter%te Boekhorst%NULL%1, Francis H.%Swaneveld%NULL%1, Yvonne M.%Mueller%NULL%1, Marco W. J.%Schreurs%NULL%2, Marco W. J.%Schreurs%NULL%0, Jeroen J. A.%van Kampen%NULL%1, Barry%Rockx%NULL%1, Nisreen M. A.%Okba%NULL%2, Nisreen M. A.%Okba%NULL%0, Peter D.%Katsikis%NULL%2, Peter D.%Katsikis%NULL%0, Marion P. G.%Koopmans%NULL%3, Marion P. G.%Koopmans%NULL%0, Bart L.%Haagmans%NULL%2, Bart L.%Haagmans%NULL%0, Casper%Rokx%c.rokx@erasmusmc.nl%2, Casper%Rokx%c.rokx@erasmusmc.nl%0, Bart J. A.%Rijnders%NULL%2, Bart J. A.%Rijnders%NULL%0]</t>
+  </si>
+  <si>
+    <t>Nature Publishing Group UK</t>
+  </si>
+  <si>
+    <t>[Anup%Agarwal%NULL%0, Aparna%Mukherjee%NULL%2, Gunjan%Kumar%NULL%3, Gunjan%Kumar%NULL%0, Pranab%Chatterjee%NULL%2, Tarun%Bhatnagar%NULL%2, Pankaj%Malhotra%NULL%2, NULL%NULL%NULL%0, NULL%NULL%NULL%0, Anup%Agarwal%NULL%0, Aparna%Mukherjee%NULL%0, Gunjan%Kumar%NULL%0, Pranab%Chatterjee%NULL%0, Tarun%Bhatnagar%NULL%0, Pankaj%Malhotra%NULL%0, B%Latha%NULL%1, Sunita%Bundas%NULL%1, Vivek%Kumar%NULL%2, Ravi%Dosi%NULL%1, Janak Kumar%Khambholja%NULL%1, Rosemarie%de Souza%NULL%1, Raja Rao%Mesipogu%NULL%1, Saurabh%Srivastava%NULL%1, Simmi%Dube%NULL%1, Kiran%Chaudhary%NULL%1, S%Subash%NULL%1, S%Anbuselvi%NULL%1, V%Rajendran%NULL%1, A%Sundararajaperumal%NULL%1, P%Balamanikandan%NULL%1, R S Uma%Maheswari%NULL%1, R%Jayanthi%NULL%1, S%Ragunanthanan%NULL%1, Sudhir%Bhandari%NULL%1, Ajeet%Singh%NULL%1, Ashok%Pal%NULL%1, Anjali%Handa%NULL%1, Govind%Rankawat%NULL%1, Ketan%Kargirwar%NULL%1, Joyce%Regi%NULL%1, Darshana%Rathod%NULL%1, Edwin%Pathrose%NULL%1, Nirankar%Bhutaka%NULL%1, Mayur H%Patel%NULL%1, Rahul J%Verma%NULL%1, Kamal%Malukani%NULL%1, Shivani%Patel%NULL%1, Apurv%Thakur%NULL%1, Satish%Joshi%NULL%1, Rashmi%Kulkarni%NULL%1, Nilay N%Suthar%NULL%1, Nehal M%Shah%NULL%1, Hemang M%Purohit%NULL%1, Cherry K%Shah%NULL%1, Monila N%Patel%NULL%1, Saket%Shah%NULL%1, Smit T%Shah%NULL%1, Tehsim%Memon%NULL%1, Vishal R%Beriwala%NULL%1, Kusum%Jashnani%NULL%1, Fatema%Ezzy%NULL%1, Simran%Agrawal%NULL%1, Rakesh%Bhadade%NULL%1, MN%Atish%NULL%1, Tushar%Madke%NULL%1, Vikas%Kavishwar%NULL%1, Ramesh%Waghmare%NULL%1, Nitin%Valvi%NULL%1, B Thrilok%Chander%NULL%1, A Vinaya%Sekhar%NULL%1, Akhilesh Kumar%Maurya%NULL%1, K%Hemanth%NULL%1, K%Nagamani%NULL%1, K%Sudha%NULL%1, T Ravi%Chandra%NULL%1, K Tushara%Rao%NULL%1, J%Vyshnavi%NULL%1, Rashmi%Upadhyay%NULL%1, Shalini%Bahadur%NULL%1, Rambha%Pathak%NULL%1, Shikha%Seth%NULL%1, Rakesh%Gupta%NULL%1, Rita%Saxena%NULL%1, Preksha%Dwivedi%NULL%1, Reeni%Malik%NULL%1, Deepti%Chourasia%NULL%1, Jaya%Lalwani%NULL%1, UM%Sharma%NULL%1, JL%Marko%NULL%1, Amit%Suri%NULL%1, Vijay%Kumar%NULL%1, Rajnish%Kaushik%NULL%1, Parul%Kodan%NULL%1, Bhabani Prasad%Acharya%NULL%1, Kuldeep Kumar%Gaur%NULL%1, Anubhav%Gupta%NULL%1, Prerna%Sachdeva%NULL%1, Shruti%Dogra%NULL%1, Aikaj%Jindal%NULL%1, M Joseph%John%NULL%1, Avtar Singh%Dhanju%NULL%1, Ranjana%Khetrepal%NULL%1, Neeraj%Sharma%NULL%1, Neetu%Kukar%NULL%1, Divya%Kavita%NULL%1, Rajesh%Kumar%NULL%1, Rajesh%Mahajan%NULL%1, Gurpreet%Singh%NULL%1, Jaspreet%Kaur%NULL%1, Raminder Pal%Singh%NULL%1, Rajni%Bassi%NULL%1, Swapneil%Parikh%NULL%1, Om%Shrivastav%NULL%1, Jayanthi%Shastri%NULL%1, Maherra%Desai%NULL%1, Shreevatsa%Udupa%NULL%1, Varun A%Bafna%NULL%1, Vijay%Barge%NULL%1, Rajendra%Madane%NULL%1, Sheetal%Yadav%NULL%1, Sanjeev%Misra%NULL%1, Archana%Bajpayee%NULL%1, M K%Garg%NULL%1, G K%Bohra%NULL%1, Vijaylakshmi%Nag%NULL%1, Puneeth Babu%Anne%NULL%1, Mohd%Nadeem%NULL%1, Pallavi%Singh%NULL%1, Ram%Niwas%NULL%1, Niranjan Shiwaji%Khaire%NULL%1, Rattiram%Sharma%NULL%1, Mini P%Singh%NULL%1, Naresh%Sachdeva%NULL%1, Suchet%Sachdev%NULL%1, Rekha%Hans%NULL%1, Vikas%Suri%NULL%1, LN%Yaddanapudi%NULL%1, PVM%Lakshmi%NULL%1, Neha%Singh%NULL%1, Divendu%Bhushan%NULL%1, Neeraj%Kumar%NULL%1, Muralidhar%Tambe%NULL%1, Sonali%Salvi%NULL%1, Nalini%Kadgi%NULL%1, Shashikala%Sangle%NULL%1, Leena%Nakate%NULL%1, Samir%Joshi%NULL%1, Rajesh%Karyakarte%NULL%1, Suraj%Goyanka%NULL%1, Nimisha%Sharma%NULL%1, Nikhil%Verma%NULL%1, Asim%Das%NULL%1, Monika%Bahl%NULL%1, Nitya%Wadhwa%NULL%1, Shreepad%Bhat%NULL%1, Shweta%Deshmukh%NULL%1, Vrushali%Wagh%NULL%1, Atul%Kulkarni%NULL%1, Tanvi%Yardi%NULL%1, Ram S%Kalgud%NULL%1, Purushottam%Reddy%NULL%1, Kavitha%Yevoor%NULL%1, Prashanth%Gajula%NULL%1, Vivek%Maleyur%NULL%1, S%Medini%NULL%1, HN%Mohith%NULL%1, Anil%Gurtoo%NULL%1, Ritika%Sud%NULL%1, Sangeeta%Pahuja%NULL%1, Anupam%Prakash%NULL%1, Parijat%Gogoi%NULL%1, Shailja%Shukla%NULL%1, D Himanshu%Reddy%NULL%1, Tulika%Chandra%NULL%1, Saurabh%Pandey%NULL%1, Pradeep%Maurya%NULL%1, Wahid%Ali%NULL%1, Vivek%Kumar%NULL%0, Kamlesh%Upadhyay%NULL%1, Nidhi%Bhatnagar%NULL%1, Nilima%Shah%NULL%1, Mamta%Shah%NULL%1, Tarak%Patel%NULL%1, Ram Mohan%Jaiswal%NULL%1, Ashish%Jain%NULL%1, Shweta%Sharma%NULL%1, Puneet%Rijhwani%NULL%1, Naveen%Gupta%NULL%1, Tinkal C%Patel%NULL%1, Mahesh G%Solu%NULL%1, Jitendra%Patel%NULL%1, Yash R%Shah%NULL%1, Mayur%Jarag%NULL%1, Varsha%Godbole%NULL%1, Meenakshi%Shah%NULL%1, Rikin%Raj%NULL%1, Irfan%Nagori%NULL%1, Pramod R%Jha%NULL%1, Arti D%Shah%NULL%1, Gowtham%Yeeli%NULL%1, Archit%Jain%NULL%1, Rooppreet Kaur%Gill%NULL%1, KV Sreedhar%Babu%NULL%1, B Suresh%Babu%NULL%1, Alladi%Mohan%NULL%1, B%Vengamma%NULL%1, K Chandra%Sekhar%NULL%1, Srinivasulu%Damam%NULL%1, K%Narsimhulu%NULL%1, C%Aparna%NULL%1, G%Baleswari%NULL%1, K Ravindranath%Reddy%NULL%1, P%Chandrasekhar%NULL%1, Sunil Jodharam%Panjwani%NULL%1, Pragnesh H%Shah%NULL%1, Manish%Barvaliya%NULL%1, Kairavi%Desai%NULL%1, Pankaj J%Akholkar%NULL%1, Milind%Baldi%NULL%1, Ashok%Yadav%NULL%1, Manoj%Gupta%NULL%1, Nitin%Rawat%NULL%1, Dilip%Chawda%NULL%1, M%Natarajan%NULL%1, M%Sintha%NULL%1, David Pradeep%Kumar%NULL%1, Fathhur%Rabbani%NULL%1, Vrushali Khirid%Khadke%NULL%1, Dattatray%Patki%NULL%1, Sonali%Marathe%NULL%1, Clyde%D’Souza%NULL%1, Vipul%Tadha%NULL%1, Satyam%Arora%NULL%1, Devendra Kumar%Gupta%NULL%1, Seema%Dua%NULL%1, Nitu%Chauhan%NULL%1, Ajeet Singh%Chahar%NULL%1, Joy John%Mammen%NULL%1, Snehil%Kumar%NULL%1, Dolly%Daniel%NULL%1, Ravindraa%Singh%NULL%1, Venkatesh%Dhat%NULL%1, Yogesh%Agarwal%NULL%1, Sohini%Arora%NULL%1, Ashish%Pathak%NULL%1, Manju%Purohit%NULL%1, Ashish%Sharma%NULL%1, Jayashree%Sharma%NULL%1, Manisha%Madkaikar%NULL%1, Kavita%Joshi%NULL%1, Reetika Malik%Yadav%NULL%1, Swarupa%Bhagwat%NULL%1, Niteen D%Karnik%NULL%1, Yojana A%Gokhale%NULL%1, Leena%Naik%NULL%1, Sangita%Margam%NULL%1, Santasabuj%Das%NULL%1, Alka%Turuk%NULL%1, V Saravana%Kumar%NULL%1, K%Kanagasabai%NULL%1, R%Sabarinathan%NULL%1, Gururaj%Deshpande%NULL%1, Sharda%Sharma%NULL%1, Rashmi%Gunjikar%NULL%1, Anita%Shete%NULL%1, Darpan%Phagiwala%NULL%1, Chetan%Patil%NULL%1, Snehal%Shingade%NULL%1, Kajal%Jarande%NULL%1, Himanshu%Kaushal%NULL%1, Pragya%Yadav%NULL%1, Gajanan%Sapkal%NULL%1, Priya%Abraham%NULL%1]</t>
+  </si>
+  <si>
+    <t>BMJ Publishing Group Ltd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treatment of severe pandemic influenza A(H1N1) 2009 virus infection with convalescent
+plasma suppressed the viral load and cytokine response, thereby reducing the subsequent
+risk of complication and death.
+ Further studies by double-blind randomized controlled
+trial of plasma treatment in these patients are warranted.
+</t>
+  </si>
+  <si>
+    <t>[Ivan FN%Hung%NULL%0, Kelvin KW%To%NULL%1, Cheuk-Kwong%Lee%NULL%1, Kar-Lung%Lee%NULL%1, Kenny%Chan%NULL%1, Wing-Wah%Yan%NULL%1, Raymond%Liu%NULL%1, Chi-Leung%Watt%NULL%1, Wai-Ming%Chan%NULL%1, Kang-Yiu%Lai%NULL%1, Chi-Kwan%Koo%NULL%1, Tom%Buckley%NULL%1, Fu-Loi%Chow%NULL%1, Kwan-Keung%Wong%NULL%1, Hok-Sum%Chan%NULL%1, Chi-Keung%Ching%NULL%1, Bone SF%Tang%NULL%1, Candy CY%Lau%NULL%1, Iris WS%Li%NULL%1, Shao-Haei%Liu%NULL%1, Kwok-Hung%Chan%NULL%0, Che-Kit%Lin%NULL%1, Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>Oxford University Press</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treatment of severe acute respiratory syndrome (SARS) is experimental, and the effectiveness of ribavirin–steroid therapy is unclear.
+ Forty SARS patients with progressive disease after ribavirin treatment and 1.5 g of pulsed methylprednisolone were given either convalescent plasma (n = 19) or further pulsed methylprednisolone (n = 21) in a retrospective non‐randomised study.
+ Good clinical outcome was defined as discharge by day 22 following the onset of symptoms.
+ Convalescent plasma was obtained from recovered patients after informed consent.
+ Patients in the plasma group had a shorter hospital stay (p 0.001) and lower mortality (p 0.049) than the comparator group.
+ No immediate adverse effects were observed following plasma infusion.
+</t>
+  </si>
+  <si>
+    <t>[Y. O. Y.%Soo%NULL%0, Y.%Cheng%NULL%0, R.%Wong%NULL%2, D. S.%Hui%NULL%1, C. K.%Lee%NULL%2, K. K. S.%Tsang%NULL%1, M. H. L.%Ng%NULL%2, P.%Chan%NULL%2, G.%Cheng%NULL%2, J. J. Y.%Sung%NULL%2]</t>
+  </si>
+  <si>
+    <t>Blackwell Science Ltd</t>
+  </si>
+  <si>
+    <t>[Hongjie%Yu%NULL%0, Zhancheng%Gao%NULL%0, Zijian%Feng%NULL%0, Yuelong%Shu%NULL%1, Nijuan%Xiang%NULL%0, Lei%Zhou%NULL%0, Yang%Huai%NULL%1, Luzhao%Feng%NULL%1, Zhibin%Peng%NULL%1, Zhongjie%Li%NULL%1, Cuiling%Xu%NULL%1, Junhua%Li%NULL%0, Chengping%Hu%NULL%1, Qun%Li%NULL%0, Xiaoling%Xu%NULL%1, Xuecheng%Liu%NULL%1, Zigui%Liu%NULL%1, Longshan%Xu%NULL%1, Yusheng%Chen%NULL%1, Huiming%Luo%NULL%1, Liping%Wei%NULL%1, Xianfeng%Zhang%NULL%1, Jianbao%Xin%NULL%1, Junqiao%Guo%NULL%1, Qiuyue%Wang%NULL%1, Zhengan%Yuan%NULL%1, Longnv%Zhou%NULL%1, Kunzhao%Zhang%NULL%1, Wei%Zhang%NULL%0, Jinye%Yang%NULL%1, Xiaoning%Zhong%NULL%1, Shichang%Xia%NULL%1, Lanjuan%Li%NULL%0, Jinquan%Cheng%NULL%1, Erdang%Ma%NULL%1, Pingping%He%NULL%1, Shui Shan%Lee%NULL%1, Yu%Wang%NULL%0, Timothy M.%Uyeki%NULL%0, Weizhong%Yang%NULL%1, Joel Mark%Montgomery%NULL%0, Joel Mark%Montgomery%NULL%0]</t>
+  </si>
+  <si>
+    <t>Public Library of Science</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In order to evaluate the efficacy of convalescent plasma therapy in the treatment of patients with severe acute respiratory syndrome (SARS), 80 SARS patients were given convalescent plasma at Prince of Wales Hospital, Hong Kong, between 20 March and 26 May 2003. Good outcome was defined as discharge by day 22 following the onset of SARS symptoms.
+ Poor outcome was defined as death or hospitalization beyond 22 days.
+ A higher day-22 discharge rate was observed among patients who were given convalescent plasma before day 14 of illness (58.3% vs 15.6%; P&amp;lt;0.001) and among those who were PCR positive and seronegative for coronavirus at the time of plasma infusion (66.7% vs 20%; P=0.001).
+</t>
+  </si>
+  <si>
+    <t>Springer-Verlag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COVID-19 is currently a big threat to global health.
+ However, no specific antiviral agents are available for its treatment.
+ In this work, we explore the feasibility of convalescent plasma (CP) transfusion to rescue severe patients.
+ The results from 10 severe adult cases showed that one dose (200 mL) of CP was well tolerated and could significantly increase or maintain the neutralizing antibodies at a high level, leading to disappearance of viremia in 7 d.
+ Meanwhile, clinical symptoms and paraclinical criteria rapidly improved within 3 d.
+ Radiological examination showed varying degrees of absorption of lung lesions within 7 d.
+ These results indicate that CP can serve as a promising rescue option for severe COVID-19, while the randomized trial is warranted.
+</t>
+  </si>
+  <si>
+    <t>[Kai%Duan%NULL%0, Bende%Liu%NULL%2, Bende%Liu%NULL%0, Cesheng%Li%NULL%1, Huajun%Zhang%NULL%1, Ting%Yu%NULL%0, Ting%Yu%NULL%0, Jieming%Qu%NULL%0, Min%Zhou%NULL%0, Min%Zhou%NULL%0, Li%Chen%NULL%5, Li%Chen%NULL%0, Shengli%Meng%NULL%2, Shengli%Meng%NULL%0, Yong%Hu%NULL%1, Cheng%Peng%NULL%1, Mingchao%Yuan%NULL%1, Jinyan%Huang%NULL%1, Zejun%Wang%NULL%2, Zejun%Wang%NULL%0, Jianhong%Yu%NULL%1, Xiaoxiao%Gao%NULL%1, Dan%Wang%NULL%3, Xiaoqi%Yu%NULL%1, Li%Li%NULL%0, Li%Li%NULL%0, Jiayou%Zhang%NULL%2, Jiayou%Zhang%NULL%0, Xiao%Wu%NULL%1, Bei%Li%NULL%0, Yanping%Xu%NULL%1, Wei%Chen%NULL%0, Wei%Chen%NULL%0, Yan%Peng%NULL%1, Yeqin%Hu%NULL%1, Lianzhen%Lin%NULL%1, Xuefei%Liu%NULL%1, Shihe%Huang%NULL%1, Zhijun%Zhou%NULL%1, Lianghao%Zhang%NULL%1, Yue%Wang%NULL%2, Zhi%Zhang%NULL%1, Kun%Deng%NULL%1, Zhiwu%Xia%NULL%1, Qin%Gong%NULL%1, Wei%Zhang%NULL%0, Xiaobei%Zheng%NULL%1, Ying%Liu%NULL%0, Huichuan%Yang%NULL%1, Dongbo%Zhou%NULL%1, Ding%Yu%NULL%1, Jifeng%Hou%NULL%1, Zhengli%Shi%NULL%0, Saijuan%Chen%NULL%1, Zhu%Chen%NULL%0, Xinxin%Zhang%NULL%0, Xiaoming%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>National Academy of Sciences</t>
+  </si>
+  <si>
+    <t>[F.%Sahr%NULL%0, R.%Ansumana%rashidansumana@gmail.com%1, T.A.%Massaquoi%NULL%1, B.R.%Idriss%NULL%1, F.R.%Sesay%NULL%1, J.M.%Lamin%NULL%1, S.%Baker%NULL%1, S.%Nicol%NULL%1, B.%Conton%NULL%1, W.%Johnson%NULL%1, O.T.%Abiri%NULL%1, O.%Kargbo%NULL%1, P.%Kamara%NULL%1, A.%Goba%NULL%1, J.B.W.%Russell%NULL%1, S.M.%Gevao%NULL%1]</t>
+  </si>
+  <si>
+    <t>The British Infection Association. Published by Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Currently, the severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) disease 2019 (COVID-19) has been reported in almost all countries globally, and no effective therapy has been documented for COVID-19 and the role of convalescent plasma therapy is unknown.
+ In current study, 6 COVID-19 subjects with respiratory failure received convalescent plasma at a median of 21.5 days after first detection of viral shedding, all tested negative for SARS-CoV-2 RNA by 3 days after infusion, and 5 died eventually.
+ In conclusion, convalescent plasma treatment can discontinue SARS-CoV-2 shedding but cannot reduce mortality in critically end-stage COVID-19 patients, and treatment should be initiated earlier.
+</t>
+  </si>
+  <si>
+    <t>[Qing-Lei%Zeng%zengqinglei2009@163.com%0, Zu-Jiang%Yu%NULL%1, Jian-Jun%Gou%NULL%1, Guang-Ming%Li%NULL%1, Shu-Huan%Ma%NULL%1, Guo-Fan%Zhang%NULL%1, Jiang-Hai%Xu%NULL%1, Wan-Bao%Lin%NULL%1, Guang-Lin%Cui%NULL%1, Min-Min%Zhang%NULL%1, Cheng%Li%NULL%1, Ze-Shuai%Wang%NULL%1, Zhi-Hao%Zhang%NULL%1, Zhang-Suo%Liu%zengqinglei2009@163.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since Dec.
+ 2019 the new coronavirus (SARS-CoV-2) has infected millions and claimed life of several hundred thousand worldwide.
+ However, so far no approved vaccine or drug therapy is available for treatment of virus infection.
+ Convalescent plasma has been considered a potential modality for COVID-19 infection.
+ One hundred eighty-nine COVID-19 positive patients including 115 patients in plasma therapy group and 74 patients in control group, registered in the hospitals with confirmed COVID-19 infection, entered this multi-center clinical study.
+ Comparison of outcomes including all-cause mortality, total hospitalization days and patients’ need for intubation between the two patient groups shows that total of 98 (98.2 %) of patients who received convalescent plasma were discharged from hospital which is substantially higher compared to 56 (78.7 %) patients in control group.
+ Length of hospitalization days was significantly lower (9.54 days) in convalescent plasma group compared with that of control group (12.88 days).
+ Only 8 patients (7%) in convalescent plasma group required intubation while that was 20 % in control group.
+ This clinical study provides strong evidence to support the efficacy of convalescent plasma therapy in COVID-19 patients and recommends this treatment for management of these patients.
+ Clinical efficacy, immediate availability and potential cost effectiveness could be considered as main advantages of convalescent plasma therapy.
+</t>
+  </si>
+  <si>
+    <t>[Hassan%Abolghasemi%NULL%0, Peyman%Eshghi%NULL%1, Abdol Majid%Cheraghali%NULL%1, Abbas Ali%Imani Fooladi%NULL%1, Farzaneh%Bolouki Moghaddam%NULL%1, Sina%Imanizadeh%NULL%1, Matin%Moeini Maleki%NULL%1, Mohammad%Ranjkesh%NULL%1, Mohammad%Rezapour%NULL%1, Ali%Bahramifar%NULL%1, Behzad%Einollahi%NULL%1, Mohammad Javad%Hosseini%NULL%1, Nematollah Joneidi%Jafari%NULL%1, Mohamad%Nikpouraghdam%NULL%1, Nariman%Sadri%NULL%1, Mokhtar%Tazik%NULL%1, Shanaz%Sali%NULL%1, Shamsi%Okati%NULL%1, Elham%Askari%NULL%1, Payam%Tabarsi%NULL%2, Jafar%Aslani%NULL%1, Ehsan%Sharifipour%NULL%1, Mohammad Hossein%Jarahzadeh%NULL%1, Nastaran%Khodakarim%NULL%1, Mahmood%Salesi%NULL%1, Ramezan%Jafari%NULL%1, Samira%Shahverdi%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2333,7 +2517,7 @@
         <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>578</v>
+        <v>616</v>
       </c>
       <c r="F2" t="s">
         <v>41</v>
@@ -2345,10 +2529,10 @@
         <v>43</v>
       </c>
       <c r="I2" t="s">
-        <v>429</v>
+        <v>105</v>
       </c>
       <c r="J2" t="s">
-        <v>105</v>
+        <v>617</v>
       </c>
     </row>
     <row r="3">
@@ -2359,25 +2543,25 @@
         <v>43770.0</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>579</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I3" t="s">
-        <v>431</v>
+        <v>105</v>
       </c>
       <c r="J3" t="s">
         <v>105</v>
@@ -2391,25 +2575,25 @@
         <v>43985.0</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
         <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>580</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>123</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
         <v>43</v>
       </c>
       <c r="I4" t="s">
-        <v>431</v>
+        <v>105</v>
       </c>
       <c r="J4" t="s">
         <v>105</v>
@@ -2423,25 +2607,25 @@
         <v>41487.0</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>581</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H5" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="I5" t="s">
-        <v>431</v>
+        <v>105</v>
       </c>
       <c r="J5" t="s">
         <v>105</v>
@@ -2458,10 +2642,10 @@
         <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>291</v>
+        <v>618</v>
       </c>
       <c r="E6" t="s">
-        <v>582</v>
+        <v>619</v>
       </c>
       <c r="F6" t="s">
         <v>58</v>
@@ -2473,10 +2657,10 @@
         <v>59</v>
       </c>
       <c r="I6" t="s">
-        <v>435</v>
+        <v>105</v>
       </c>
       <c r="J6" t="s">
-        <v>105</v>
+        <v>620</v>
       </c>
     </row>
     <row r="7">
@@ -2487,25 +2671,25 @@
         <v>42415.0</v>
       </c>
       <c r="C7" t="s">
-        <v>126</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
         <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>583</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="G7" t="s">
-        <v>123</v>
+        <v>36</v>
       </c>
       <c r="H7" t="s">
         <v>43</v>
       </c>
       <c r="I7" t="s">
-        <v>431</v>
+        <v>105</v>
       </c>
       <c r="J7" t="s">
         <v>105</v>
@@ -2519,25 +2703,25 @@
         <v>44103.0</v>
       </c>
       <c r="C8" t="s">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>584</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>123</v>
+        <v>36</v>
       </c>
       <c r="H8" t="s">
         <v>43</v>
       </c>
       <c r="I8" t="s">
-        <v>431</v>
+        <v>105</v>
       </c>
       <c r="J8" t="s">
         <v>105</v>
@@ -2557,7 +2741,7 @@
         <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>585</v>
+        <v>621</v>
       </c>
       <c r="F9" t="s">
         <v>63</v>
@@ -2569,10 +2753,10 @@
         <v>64</v>
       </c>
       <c r="I9" t="s">
-        <v>439</v>
+        <v>105</v>
       </c>
       <c r="J9" t="s">
-        <v>105</v>
+        <v>622</v>
       </c>
     </row>
     <row r="10">
@@ -2586,10 +2770,10 @@
         <v>65</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>623</v>
       </c>
       <c r="E10" t="s">
-        <v>586</v>
+        <v>624</v>
       </c>
       <c r="F10" t="s">
         <v>68</v>
@@ -2601,10 +2785,10 @@
         <v>69</v>
       </c>
       <c r="I10" t="s">
-        <v>439</v>
+        <v>105</v>
       </c>
       <c r="J10" t="s">
-        <v>105</v>
+        <v>625</v>
       </c>
     </row>
     <row r="11">
@@ -2618,10 +2802,10 @@
         <v>70</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>626</v>
       </c>
       <c r="E11" t="s">
-        <v>587</v>
+        <v>627</v>
       </c>
       <c r="F11" t="s">
         <v>73</v>
@@ -2633,10 +2817,10 @@
         <v>43</v>
       </c>
       <c r="I11" t="s">
-        <v>429</v>
+        <v>105</v>
       </c>
       <c r="J11" t="s">
-        <v>105</v>
+        <v>628</v>
       </c>
     </row>
     <row r="12">
@@ -2647,28 +2831,28 @@
         <v>42376.0</v>
       </c>
       <c r="C12" t="s">
-        <v>201</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
         <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>338</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="G12" t="s">
-        <v>203</v>
+        <v>36</v>
       </c>
       <c r="H12" t="s">
-        <v>204</v>
+        <v>43</v>
       </c>
       <c r="I12" t="s">
         <v>105</v>
       </c>
       <c r="J12" t="s">
-        <v>484</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13">
@@ -2679,25 +2863,25 @@
         <v>6951.0</v>
       </c>
       <c r="C13" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>135</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>136</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="G13" t="s">
-        <v>123</v>
+        <v>36</v>
       </c>
       <c r="H13" t="s">
         <v>43</v>
       </c>
       <c r="I13" t="s">
-        <v>431</v>
+        <v>105</v>
       </c>
       <c r="J13" t="s">
         <v>105</v>
@@ -2717,7 +2901,7 @@
         <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>588</v>
+        <v>629</v>
       </c>
       <c r="F14" t="s">
         <v>77</v>
@@ -2729,10 +2913,10 @@
         <v>78</v>
       </c>
       <c r="I14" t="s">
-        <v>439</v>
+        <v>105</v>
       </c>
       <c r="J14" t="s">
-        <v>105</v>
+        <v>630</v>
       </c>
     </row>
     <row r="15">
@@ -2743,28 +2927,28 @@
         <v>6944.0</v>
       </c>
       <c r="C15" t="s">
-        <v>206</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
         <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>207</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>203</v>
+        <v>36</v>
       </c>
       <c r="H15" t="s">
-        <v>208</v>
+        <v>43</v>
       </c>
       <c r="I15" t="s">
         <v>105</v>
       </c>
       <c r="J15" t="s">
-        <v>487</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16">
@@ -2775,28 +2959,28 @@
         <v>7168.0</v>
       </c>
       <c r="C16" t="s">
-        <v>209</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
         <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>210</v>
+        <v>34</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="G16" t="s">
-        <v>203</v>
+        <v>36</v>
       </c>
       <c r="H16" t="s">
-        <v>211</v>
+        <v>43</v>
       </c>
       <c r="I16" t="s">
         <v>105</v>
       </c>
       <c r="J16" t="s">
-        <v>487</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17">
@@ -2807,28 +2991,28 @@
         <v>7000.0</v>
       </c>
       <c r="C17" t="s">
-        <v>212</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
         <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>340</v>
+        <v>34</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="G17" t="s">
-        <v>203</v>
+        <v>36</v>
       </c>
       <c r="H17" t="s">
-        <v>211</v>
+        <v>43</v>
       </c>
       <c r="I17" t="s">
         <v>105</v>
       </c>
       <c r="J17" t="s">
-        <v>487</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18">
@@ -2839,28 +3023,28 @@
         <v>7523.0</v>
       </c>
       <c r="C18" t="s">
-        <v>214</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
         <v>31</v>
       </c>
       <c r="E18" t="s">
-        <v>215</v>
+        <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>203</v>
+        <v>36</v>
       </c>
       <c r="H18" t="s">
-        <v>216</v>
+        <v>43</v>
       </c>
       <c r="I18" t="s">
         <v>105</v>
       </c>
       <c r="J18" t="s">
-        <v>484</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19">
@@ -2871,28 +3055,28 @@
         <v>6930.0</v>
       </c>
       <c r="C19" t="s">
-        <v>217</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
         <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>341</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>203</v>
+        <v>36</v>
       </c>
       <c r="H19" t="s">
-        <v>208</v>
+        <v>43</v>
       </c>
       <c r="I19" t="s">
         <v>105</v>
       </c>
       <c r="J19" t="s">
-        <v>487</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20">
@@ -2906,10 +3090,10 @@
         <v>79</v>
       </c>
       <c r="D20" t="s">
-        <v>80</v>
+        <v>631</v>
       </c>
       <c r="E20" t="s">
-        <v>589</v>
+        <v>81</v>
       </c>
       <c r="F20" t="s">
         <v>82</v>
@@ -2921,10 +3105,10 @@
         <v>43</v>
       </c>
       <c r="I20" t="s">
-        <v>435</v>
+        <v>105</v>
       </c>
       <c r="J20" t="s">
-        <v>105</v>
+        <v>632</v>
       </c>
     </row>
     <row r="21">
@@ -2935,28 +3119,28 @@
         <v>7007.0</v>
       </c>
       <c r="C21" t="s">
-        <v>220</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
         <v>31</v>
       </c>
       <c r="E21" t="s">
-        <v>343</v>
+        <v>34</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>203</v>
+        <v>36</v>
       </c>
       <c r="H21" t="s">
-        <v>222</v>
+        <v>43</v>
       </c>
       <c r="I21" t="s">
         <v>105</v>
       </c>
       <c r="J21" t="s">
-        <v>487</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22">
@@ -2970,10 +3154,10 @@
         <v>83</v>
       </c>
       <c r="D22" t="s">
-        <v>84</v>
+        <v>633</v>
       </c>
       <c r="E22" t="s">
-        <v>590</v>
+        <v>634</v>
       </c>
       <c r="F22" t="s">
         <v>86</v>
@@ -2985,10 +3169,10 @@
         <v>43</v>
       </c>
       <c r="I22" t="s">
-        <v>439</v>
+        <v>105</v>
       </c>
       <c r="J22" t="s">
-        <v>105</v>
+        <v>635</v>
       </c>
     </row>
     <row r="23">
@@ -3005,7 +3189,7 @@
         <v>88</v>
       </c>
       <c r="E23" t="s">
-        <v>591</v>
+        <v>636</v>
       </c>
       <c r="F23" t="s">
         <v>90</v>
@@ -3017,10 +3201,10 @@
         <v>91</v>
       </c>
       <c r="I23" t="s">
-        <v>429</v>
+        <v>105</v>
       </c>
       <c r="J23" t="s">
-        <v>105</v>
+        <v>637</v>
       </c>
     </row>
     <row r="24">
@@ -3034,10 +3218,10 @@
         <v>92</v>
       </c>
       <c r="D24" t="s">
-        <v>93</v>
+        <v>638</v>
       </c>
       <c r="E24" t="s">
-        <v>592</v>
+        <v>639</v>
       </c>
       <c r="F24" t="s">
         <v>95</v>
@@ -3049,10 +3233,10 @@
         <v>43</v>
       </c>
       <c r="I24" t="s">
-        <v>439</v>
+        <v>105</v>
       </c>
       <c r="J24" t="s">
-        <v>105</v>
+        <v>625</v>
       </c>
     </row>
     <row r="25">
@@ -3066,10 +3250,10 @@
         <v>96</v>
       </c>
       <c r="D25" t="s">
-        <v>97</v>
+        <v>640</v>
       </c>
       <c r="E25" t="s">
-        <v>593</v>
+        <v>641</v>
       </c>
       <c r="F25" t="s">
         <v>99</v>
@@ -3081,10 +3265,10 @@
         <v>100</v>
       </c>
       <c r="I25" t="s">
-        <v>429</v>
+        <v>105</v>
       </c>
       <c r="J25" t="s">
-        <v>105</v>
+        <v>617</v>
       </c>
     </row>
   </sheetData>
